--- a/ADI-scrum-BrndownChart.xlsx
+++ b/ADI-scrum-BrndownChart.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="110">
   <si>
     <t>Project</t>
   </si>
@@ -262,15 +262,9 @@
     <t>Design och skapa object för Product</t>
   </si>
   <si>
-    <t>Design och skapa object Cart</t>
-  </si>
-  <si>
     <t xml:space="preserve">Design och skapa object User </t>
   </si>
   <si>
-    <t>Skapa Interface för Cart, Prod, Users</t>
-  </si>
-  <si>
     <t>Skapa Products API (prod Repo In DB)</t>
   </si>
   <si>
@@ -353,6 +347,18 @@
   </si>
   <si>
     <t>Day 1 Fred</t>
+  </si>
+  <si>
+    <t>Skriva</t>
+  </si>
+  <si>
+    <t>Testa</t>
+  </si>
+  <si>
+    <t>Git setup</t>
+  </si>
+  <si>
+    <t>Skapa Interface för Cart,Category Prod, Users</t>
   </si>
 </sst>
 </file>
@@ -838,19 +844,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="3">
-                  <c:v>201.0</c:v>
+                  <c:v>202.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>201.0</c:v>
+                  <c:v>202.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>188.0</c:v>
+                  <c:v>189.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>167.0</c:v>
+                  <c:v>168.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>167.0</c:v>
+                  <c:v>168.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>130.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -943,11 +952,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2127239848"/>
-        <c:axId val="2127225000"/>
+        <c:axId val="2102887880"/>
+        <c:axId val="2102890856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2127239848"/>
+        <c:axId val="2102887880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -956,7 +965,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127225000"/>
+        <c:crossAx val="2102890856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -964,7 +973,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2127225000"/>
+        <c:axId val="2102890856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -975,7 +984,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127239848"/>
+        <c:crossAx val="2102887880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1328,14 +1337,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Z53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="47" customHeight="1">
@@ -1392,67 +1401,67 @@
         <v>65</v>
       </c>
       <c r="F4" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="I4" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="J4" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="K4" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="L4" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="M4" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="N4" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="M4" s="30" t="s">
+      <c r="O4" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="N4" s="30" t="s">
+      <c r="P4" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="O4" s="30" t="s">
+      <c r="Q4" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="P4" s="30" t="s">
+      <c r="R4" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="Q4" s="30" t="s">
+      <c r="S4" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="R4" s="30" t="s">
+      <c r="T4" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="S4" s="30" t="s">
+      <c r="U4" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="T4" s="30" t="s">
+      <c r="V4" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="U4" s="30" t="s">
+      <c r="W4" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="V4" s="30" t="s">
+      <c r="X4" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="W4" s="30" t="s">
+      <c r="Y4" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="X4" s="30" t="s">
+      <c r="Z4" s="30" t="s">
         <v>105</v>
-      </c>
-      <c r="Y4" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z4" s="30" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="5" spans="2:26">
@@ -1483,7 +1492,9 @@
       <c r="J5" s="4">
         <v>0</v>
       </c>
-      <c r="K5" s="4"/>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -1528,7 +1539,9 @@
       <c r="J6" s="4">
         <v>0</v>
       </c>
-      <c r="K6" s="4"/>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -1573,7 +1586,9 @@
       <c r="J7" s="4">
         <v>0</v>
       </c>
-      <c r="K7" s="4"/>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -1618,7 +1633,9 @@
       <c r="J8" s="4">
         <v>0</v>
       </c>
-      <c r="K8" s="4"/>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -1663,7 +1680,9 @@
       <c r="J9" s="4">
         <v>0</v>
       </c>
-      <c r="K9" s="4"/>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -1708,7 +1727,9 @@
       <c r="J10" s="4">
         <v>0</v>
       </c>
-      <c r="K10" s="4"/>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -1753,7 +1774,9 @@
       <c r="J11" s="4">
         <v>0</v>
       </c>
-      <c r="K11" s="4"/>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
@@ -1798,7 +1821,9 @@
       <c r="J12" s="4">
         <v>0</v>
       </c>
-      <c r="K12" s="4"/>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -1843,7 +1868,9 @@
       <c r="J13" s="4">
         <v>0</v>
       </c>
-      <c r="K13" s="4"/>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -1888,7 +1915,9 @@
       <c r="J14" s="4">
         <v>29</v>
       </c>
-      <c r="K14" s="4"/>
+      <c r="K14" s="4">
+        <v>3</v>
+      </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -1933,7 +1962,9 @@
       <c r="J15" s="4">
         <v>2</v>
       </c>
-      <c r="K15" s="4"/>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -1961,24 +1992,26 @@
         <v>55</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="F16" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H16" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16" s="4">
-        <v>2</v>
-      </c>
-      <c r="K16" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -2006,7 +2039,7 @@
         <v>56</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F17" s="4">
         <v>2</v>
@@ -2023,7 +2056,9 @@
       <c r="J17" s="4">
         <v>2</v>
       </c>
-      <c r="K17" s="4"/>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -2068,7 +2103,9 @@
       <c r="J18" s="4">
         <v>30</v>
       </c>
-      <c r="K18" s="4"/>
+      <c r="K18" s="4">
+        <v>30</v>
+      </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -2096,7 +2133,7 @@
         <v>9</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="F19" s="4">
         <v>5</v>
@@ -2113,7 +2150,9 @@
       <c r="J19" s="4">
         <v>5</v>
       </c>
-      <c r="K19" s="4"/>
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
@@ -2141,7 +2180,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F20" s="4">
         <v>8</v>
@@ -2158,7 +2197,9 @@
       <c r="J20" s="4">
         <v>8</v>
       </c>
-      <c r="K20" s="4"/>
+      <c r="K20" s="4">
+        <v>8</v>
+      </c>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -2186,7 +2227,7 @@
         <v>11</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F21" s="4">
         <v>8</v>
@@ -2203,7 +2244,9 @@
       <c r="J21" s="4">
         <v>8</v>
       </c>
-      <c r="K21" s="4"/>
+      <c r="K21" s="4">
+        <v>8</v>
+      </c>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -2231,7 +2274,7 @@
         <v>58</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F22" s="4">
         <v>8</v>
@@ -2248,7 +2291,9 @@
       <c r="J22" s="4">
         <v>8</v>
       </c>
-      <c r="K22" s="4"/>
+      <c r="K22" s="4">
+        <v>8</v>
+      </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
@@ -2276,7 +2321,7 @@
         <v>59</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F23" s="4">
         <v>8</v>
@@ -2293,7 +2338,9 @@
       <c r="J23" s="4">
         <v>8</v>
       </c>
-      <c r="K23" s="4"/>
+      <c r="K23" s="4">
+        <v>8</v>
+      </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -2321,7 +2368,7 @@
         <v>60</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F24" s="4">
         <v>40</v>
@@ -2338,7 +2385,9 @@
       <c r="J24" s="4">
         <v>40</v>
       </c>
-      <c r="K24" s="4"/>
+      <c r="K24" s="4">
+        <v>40</v>
+      </c>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
@@ -2365,7 +2414,9 @@
       <c r="D25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="F25" s="4">
         <v>15</v>
       </c>
@@ -2381,7 +2432,9 @@
       <c r="J25" s="4">
         <v>15</v>
       </c>
-      <c r="K25" s="4"/>
+      <c r="K25" s="4">
+        <v>15</v>
+      </c>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
@@ -2408,7 +2461,9 @@
       <c r="D26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="F26" s="4">
         <v>10</v>
       </c>
@@ -2424,7 +2479,9 @@
       <c r="J26" s="4">
         <v>10</v>
       </c>
-      <c r="K26" s="4"/>
+      <c r="K26" s="4">
+        <v>10</v>
+      </c>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
@@ -2501,32 +2558,35 @@
     </row>
     <row r="29" spans="2:26">
       <c r="B29" s="35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
       <c r="E29" s="5"/>
       <c r="F29" s="4">
         <f>SUM(F5:F28)</f>
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G29" s="4">
         <f>SUM(G5:G26)</f>
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H29" s="4">
         <f>SUM(H5:H28)</f>
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I29" s="4">
         <f>SUM(I5:I28)</f>
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J29" s="4">
         <f>SUM(J5:J27)</f>
-        <v>167</v>
-      </c>
-      <c r="K29" s="4"/>
+        <v>168</v>
+      </c>
+      <c r="K29" s="4">
+        <f>SUM(K5:K27)</f>
+        <v>130</v>
+      </c>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
@@ -2545,7 +2605,7 @@
     </row>
     <row r="30" spans="2:26">
       <c r="B30" s="35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>

--- a/ADI-scrum-BrndownChart.xlsx
+++ b/ADI-scrum-BrndownChart.xlsx
@@ -952,11 +952,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2102887880"/>
-        <c:axId val="2102890856"/>
+        <c:axId val="2103147240"/>
+        <c:axId val="2103150264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2102887880"/>
+        <c:axId val="2103147240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -965,7 +965,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102890856"/>
+        <c:crossAx val="2103150264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -973,7 +973,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2102890856"/>
+        <c:axId val="2103150264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -984,7 +984,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102887880"/>
+        <c:crossAx val="2103147240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1337,8 +1337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Z53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/ADI-scrum-BrndownChart.xlsx
+++ b/ADI-scrum-BrndownChart.xlsx
@@ -877,6 +877,9 @@
                 <c:pt idx="8">
                   <c:v>130.0</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>115.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -968,11 +971,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2093680920"/>
-        <c:axId val="2093683896"/>
+        <c:axId val="2111210520"/>
+        <c:axId val="2111213496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2093680920"/>
+        <c:axId val="2111210520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -981,7 +984,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2093683896"/>
+        <c:crossAx val="2111213496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -989,7 +992,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2093683896"/>
+        <c:axId val="2111213496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1000,7 +1003,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2093680920"/>
+        <c:crossAx val="2111210520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1353,8 +1356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Z53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="Z30" sqref="Z30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1511,7 +1514,9 @@
       <c r="K5" s="4">
         <v>0</v>
       </c>
-      <c r="L5" s="4"/>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -1558,7 +1563,9 @@
       <c r="K6" s="4">
         <v>0</v>
       </c>
-      <c r="L6" s="4"/>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -1605,7 +1612,9 @@
       <c r="K7" s="4">
         <v>0</v>
       </c>
-      <c r="L7" s="4"/>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -1652,7 +1661,9 @@
       <c r="K8" s="4">
         <v>0</v>
       </c>
-      <c r="L8" s="4"/>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -1699,7 +1710,9 @@
       <c r="K9" s="4">
         <v>0</v>
       </c>
-      <c r="L9" s="4"/>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -1746,7 +1759,9 @@
       <c r="K10" s="4">
         <v>0</v>
       </c>
-      <c r="L10" s="4"/>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -1793,7 +1808,9 @@
       <c r="K11" s="4">
         <v>0</v>
       </c>
-      <c r="L11" s="4"/>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -1840,7 +1857,9 @@
       <c r="K12" s="4">
         <v>0</v>
       </c>
-      <c r="L12" s="4"/>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -1887,7 +1906,9 @@
       <c r="K13" s="4">
         <v>0</v>
       </c>
-      <c r="L13" s="4"/>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -1934,7 +1955,9 @@
       <c r="K14" s="4">
         <v>3</v>
       </c>
-      <c r="L14" s="4"/>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -1981,7 +2004,9 @@
       <c r="K15" s="4">
         <v>0</v>
       </c>
-      <c r="L15" s="4"/>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -2028,7 +2053,9 @@
       <c r="K16" s="4">
         <v>0</v>
       </c>
-      <c r="L16" s="4"/>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -2075,7 +2102,9 @@
       <c r="K17" s="4">
         <v>0</v>
       </c>
-      <c r="L17" s="4"/>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -2122,7 +2151,9 @@
       <c r="K18" s="4">
         <v>30</v>
       </c>
-      <c r="L18" s="4"/>
+      <c r="L18" s="4">
+        <v>21</v>
+      </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -2169,7 +2200,9 @@
       <c r="K19" s="4">
         <v>0</v>
       </c>
-      <c r="L19" s="4"/>
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
@@ -2216,7 +2249,9 @@
       <c r="K20" s="4">
         <v>8</v>
       </c>
-      <c r="L20" s="4"/>
+      <c r="L20" s="4">
+        <v>8</v>
+      </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -2263,7 +2298,9 @@
       <c r="K21" s="4">
         <v>8</v>
       </c>
-      <c r="L21" s="4"/>
+      <c r="L21" s="4">
+        <v>8</v>
+      </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
@@ -2310,7 +2347,9 @@
       <c r="K22" s="4">
         <v>8</v>
       </c>
-      <c r="L22" s="4"/>
+      <c r="L22" s="4">
+        <v>5</v>
+      </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
@@ -2357,7 +2396,9 @@
       <c r="K23" s="4">
         <v>8</v>
       </c>
-      <c r="L23" s="4"/>
+      <c r="L23" s="4">
+        <v>8</v>
+      </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
@@ -2404,7 +2445,9 @@
       <c r="K24" s="4">
         <v>40</v>
       </c>
-      <c r="L24" s="4"/>
+      <c r="L24" s="4">
+        <v>40</v>
+      </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -2451,7 +2494,9 @@
       <c r="K25" s="4">
         <v>15</v>
       </c>
-      <c r="L25" s="4"/>
+      <c r="L25" s="4">
+        <v>15</v>
+      </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
@@ -2498,7 +2543,9 @@
       <c r="K26" s="4">
         <v>10</v>
       </c>
-      <c r="L26" s="4"/>
+      <c r="L26" s="4">
+        <v>10</v>
+      </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
@@ -2603,7 +2650,10 @@
         <f>SUM(K5:K27)</f>
         <v>130</v>
       </c>
-      <c r="L29" s="4"/>
+      <c r="L29" s="4">
+        <f>SUM(L5:L26)</f>
+        <v>115</v>
+      </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>

--- a/ADI-scrum-BrndownChart.xlsx
+++ b/ADI-scrum-BrndownChart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3700" yWindow="0" windowWidth="24360" windowHeight="17120"/>
+    <workbookView xWindow="2860" yWindow="0" windowWidth="24360" windowHeight="17120"/>
   </bookViews>
   <sheets>
     <sheet name="ADI-burndown" sheetId="4" r:id="rId1"/>
@@ -880,6 +880,9 @@
                 <c:pt idx="9">
                   <c:v>115.0</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>69.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -971,11 +974,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2111210520"/>
-        <c:axId val="2111213496"/>
+        <c:axId val="2118237896"/>
+        <c:axId val="2118234904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2111210520"/>
+        <c:axId val="2118237896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -984,7 +987,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111213496"/>
+        <c:crossAx val="2118234904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -992,7 +995,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2111213496"/>
+        <c:axId val="2118234904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1003,7 +1006,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111210520"/>
+        <c:crossAx val="2118237896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1356,8 +1359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Z53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1517,7 +1520,9 @@
       <c r="L5" s="4">
         <v>0</v>
       </c>
-      <c r="M5" s="4"/>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
@@ -1566,7 +1571,9 @@
       <c r="L6" s="4">
         <v>0</v>
       </c>
-      <c r="M6" s="4"/>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
@@ -1615,7 +1622,9 @@
       <c r="L7" s="4">
         <v>0</v>
       </c>
-      <c r="M7" s="4"/>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
@@ -1664,7 +1673,9 @@
       <c r="L8" s="4">
         <v>0</v>
       </c>
-      <c r="M8" s="4"/>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -1713,7 +1724,9 @@
       <c r="L9" s="4">
         <v>0</v>
       </c>
-      <c r="M9" s="4"/>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -1762,7 +1775,9 @@
       <c r="L10" s="4">
         <v>0</v>
       </c>
-      <c r="M10" s="4"/>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
@@ -1811,7 +1826,9 @@
       <c r="L11" s="4">
         <v>0</v>
       </c>
-      <c r="M11" s="4"/>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
@@ -1860,7 +1877,9 @@
       <c r="L12" s="4">
         <v>0</v>
       </c>
-      <c r="M12" s="4"/>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
@@ -1909,7 +1928,9 @@
       <c r="L13" s="4">
         <v>0</v>
       </c>
-      <c r="M13" s="4"/>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -1958,7 +1979,9 @@
       <c r="L14" s="4">
         <v>0</v>
       </c>
-      <c r="M14" s="4"/>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
@@ -2007,7 +2030,9 @@
       <c r="L15" s="4">
         <v>0</v>
       </c>
-      <c r="M15" s="4"/>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
@@ -2056,7 +2081,9 @@
       <c r="L16" s="4">
         <v>0</v>
       </c>
-      <c r="M16" s="4"/>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
@@ -2105,7 +2132,9 @@
       <c r="L17" s="4">
         <v>0</v>
       </c>
-      <c r="M17" s="4"/>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
@@ -2154,7 +2183,9 @@
       <c r="L18" s="4">
         <v>21</v>
       </c>
-      <c r="M18" s="4"/>
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
@@ -2203,7 +2234,9 @@
       <c r="L19" s="4">
         <v>0</v>
       </c>
-      <c r="M19" s="4"/>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
@@ -2252,7 +2285,9 @@
       <c r="L20" s="4">
         <v>8</v>
       </c>
-      <c r="M20" s="4"/>
+      <c r="M20" s="4">
+        <v>3</v>
+      </c>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
@@ -2301,7 +2336,9 @@
       <c r="L21" s="4">
         <v>8</v>
       </c>
-      <c r="M21" s="4"/>
+      <c r="M21" s="4">
+        <v>3</v>
+      </c>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
@@ -2350,7 +2387,9 @@
       <c r="L22" s="4">
         <v>5</v>
       </c>
-      <c r="M22" s="4"/>
+      <c r="M22" s="4">
+        <v>0</v>
+      </c>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
@@ -2399,7 +2438,9 @@
       <c r="L23" s="4">
         <v>8</v>
       </c>
-      <c r="M23" s="4"/>
+      <c r="M23" s="4">
+        <v>3</v>
+      </c>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
@@ -2448,7 +2489,9 @@
       <c r="L24" s="4">
         <v>40</v>
       </c>
-      <c r="M24" s="4"/>
+      <c r="M24" s="4">
+        <v>35</v>
+      </c>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
@@ -2497,7 +2540,9 @@
       <c r="L25" s="4">
         <v>15</v>
       </c>
-      <c r="M25" s="4"/>
+      <c r="M25" s="4">
+        <v>15</v>
+      </c>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
@@ -2546,7 +2591,9 @@
       <c r="L26" s="4">
         <v>10</v>
       </c>
-      <c r="M26" s="4"/>
+      <c r="M26" s="4">
+        <v>10</v>
+      </c>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
@@ -2654,7 +2701,10 @@
         <f>SUM(L5:L26)</f>
         <v>115</v>
       </c>
-      <c r="M29" s="4"/>
+      <c r="M29" s="4">
+        <f>SUM(M5:M27)</f>
+        <v>69</v>
+      </c>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>

--- a/ADI-scrum-BrndownChart.xlsx
+++ b/ADI-scrum-BrndownChart.xlsx
@@ -678,7 +678,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -699,6 +699,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -777,7 +779,7 @@
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -800,8 +802,10 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -882,6 +886,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>58.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -974,11 +981,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2118237896"/>
-        <c:axId val="2118234904"/>
+        <c:axId val="2033070088"/>
+        <c:axId val="2033073064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2118237896"/>
+        <c:axId val="2033070088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -987,7 +994,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118234904"/>
+        <c:crossAx val="2033073064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -995,7 +1002,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2118234904"/>
+        <c:axId val="2033073064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1006,7 +1013,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118237896"/>
+        <c:crossAx val="2033070088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1359,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Z53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="V30" sqref="V30"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1523,7 +1530,9 @@
       <c r="M5" s="4">
         <v>0</v>
       </c>
-      <c r="N5" s="4"/>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
@@ -1574,7 +1583,9 @@
       <c r="M6" s="4">
         <v>0</v>
       </c>
-      <c r="N6" s="4"/>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
@@ -1625,7 +1636,9 @@
       <c r="M7" s="4">
         <v>0</v>
       </c>
-      <c r="N7" s="4"/>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -1676,7 +1689,9 @@
       <c r="M8" s="4">
         <v>0</v>
       </c>
-      <c r="N8" s="4"/>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -1727,7 +1742,9 @@
       <c r="M9" s="4">
         <v>0</v>
       </c>
-      <c r="N9" s="4"/>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
@@ -1778,7 +1795,9 @@
       <c r="M10" s="4">
         <v>0</v>
       </c>
-      <c r="N10" s="4"/>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
@@ -1829,7 +1848,9 @@
       <c r="M11" s="4">
         <v>0</v>
       </c>
-      <c r="N11" s="4"/>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
@@ -1880,7 +1901,9 @@
       <c r="M12" s="4">
         <v>0</v>
       </c>
-      <c r="N12" s="4"/>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
@@ -1931,7 +1954,9 @@
       <c r="M13" s="4">
         <v>0</v>
       </c>
-      <c r="N13" s="4"/>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -1982,7 +2007,9 @@
       <c r="M14" s="4">
         <v>0</v>
       </c>
-      <c r="N14" s="4"/>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
@@ -2033,7 +2060,9 @@
       <c r="M15" s="4">
         <v>0</v>
       </c>
-      <c r="N15" s="4"/>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
@@ -2084,7 +2113,9 @@
       <c r="M16" s="4">
         <v>0</v>
       </c>
-      <c r="N16" s="4"/>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
@@ -2135,7 +2166,9 @@
       <c r="M17" s="4">
         <v>0</v>
       </c>
-      <c r="N17" s="4"/>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
@@ -2186,7 +2219,9 @@
       <c r="M18" s="4">
         <v>0</v>
       </c>
-      <c r="N18" s="4"/>
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
@@ -2237,7 +2272,9 @@
       <c r="M19" s="4">
         <v>0</v>
       </c>
-      <c r="N19" s="4"/>
+      <c r="N19" s="4">
+        <v>0</v>
+      </c>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
@@ -2288,7 +2325,9 @@
       <c r="M20" s="4">
         <v>3</v>
       </c>
-      <c r="N20" s="4"/>
+      <c r="N20" s="4">
+        <v>1</v>
+      </c>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
@@ -2339,7 +2378,9 @@
       <c r="M21" s="4">
         <v>3</v>
       </c>
-      <c r="N21" s="4"/>
+      <c r="N21" s="4">
+        <v>1</v>
+      </c>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
@@ -2390,7 +2431,9 @@
       <c r="M22" s="4">
         <v>0</v>
       </c>
-      <c r="N22" s="4"/>
+      <c r="N22" s="4">
+        <v>0</v>
+      </c>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
@@ -2441,7 +2484,9 @@
       <c r="M23" s="4">
         <v>3</v>
       </c>
-      <c r="N23" s="4"/>
+      <c r="N23" s="4">
+        <v>1</v>
+      </c>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
@@ -2492,7 +2537,9 @@
       <c r="M24" s="4">
         <v>35</v>
       </c>
-      <c r="N24" s="4"/>
+      <c r="N24" s="4">
+        <v>30</v>
+      </c>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
@@ -2543,7 +2590,9 @@
       <c r="M25" s="4">
         <v>15</v>
       </c>
-      <c r="N25" s="4"/>
+      <c r="N25" s="4">
+        <v>15</v>
+      </c>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
@@ -2594,7 +2643,9 @@
       <c r="M26" s="4">
         <v>10</v>
       </c>
-      <c r="N26" s="4"/>
+      <c r="N26" s="4">
+        <v>10</v>
+      </c>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
@@ -2705,7 +2756,10 @@
         <f>SUM(M5:M27)</f>
         <v>69</v>
       </c>
-      <c r="N29" s="4"/>
+      <c r="N29" s="4">
+        <f>SUM(N5:N27)</f>
+        <v>58</v>
+      </c>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>

--- a/ADI-scrum-BrndownChart.xlsx
+++ b/ADI-scrum-BrndownChart.xlsx
@@ -678,7 +678,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -699,6 +699,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -779,7 +785,7 @@
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -803,9 +809,15 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -834,10 +846,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0938435235436208"/>
-          <c:y val="0.0694443265907134"/>
-          <c:w val="0.669448926613311"/>
-          <c:h val="0.822469378827647"/>
+          <c:x val="0.0454217258005699"/>
+          <c:y val="0.047682119205298"/>
+          <c:w val="0.80482421901379"/>
+          <c:h val="0.898419565104031"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -846,49 +858,44 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'ADI-burndown'!$B$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Actual Burndown</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>'ADI-burndown'!$C$29:$Z$29</c:f>
+              <c:f>'ADI-burndown'!$F$29:$Z$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>227.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>227.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>214.0</c:v>
+                </c:pt>
                 <c:pt idx="3">
-                  <c:v>202.0</c:v>
+                  <c:v>193.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>202.0</c:v>
+                  <c:v>193.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>189.0</c:v>
+                  <c:v>155.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>168.0</c:v>
+                  <c:v>140.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>168.0</c:v>
+                  <c:v>94.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>130.0</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>115.0</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>58.0</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -898,72 +905,61 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'ADI-burndown'!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ideal Burndown </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>'ADI-burndown'!$C$30:$Z$30</c:f>
+              <c:f>'ADI-burndown'!$F$30:$Z$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="3">
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
                   <c:v>240.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="1">
                   <c:v>225.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="2">
                   <c:v>210.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="3">
                   <c:v>195.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="4">
                   <c:v>180.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="5">
                   <c:v>165.0</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="6">
                   <c:v>150.0</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="7">
                   <c:v>135.0</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="8">
                   <c:v>120.0</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="9">
                   <c:v>105.0</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="10">
                   <c:v>90.0</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="11">
                   <c:v>75.0</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="12">
                   <c:v>60.0</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="13">
                   <c:v>45.0</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="14">
                   <c:v>30.0</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="15">
                   <c:v>15.0</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="16">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -981,11 +977,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2033070088"/>
-        <c:axId val="2033073064"/>
+        <c:axId val="2112537208"/>
+        <c:axId val="2112541944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2033070088"/>
+        <c:axId val="2112537208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -994,7 +990,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2033073064"/>
+        <c:crossAx val="2112541944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1002,7 +998,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2033073064"/>
+        <c:axId val="2112541944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1013,23 +1009,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2033070088"/>
+        <c:crossAx val="2112537208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.83034921421416"/>
-          <c:y val="0.0699393221008664"/>
-          <c:w val="0.139982334629512"/>
-          <c:h val="0.0959756912106417"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1048,20 +1035,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
+      <xdr:colOff>203200</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1366,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Z53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1533,8 +1520,12 @@
       <c r="N5" s="4">
         <v>0</v>
       </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0</v>
+      </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
@@ -1586,8 +1577,12 @@
       <c r="N6" s="4">
         <v>0</v>
       </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0</v>
+      </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
@@ -1639,8 +1634,12 @@
       <c r="N7" s="4">
         <v>0</v>
       </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0</v>
+      </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
@@ -1692,8 +1691,12 @@
       <c r="N8" s="4">
         <v>0</v>
       </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0</v>
+      </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
@@ -1745,8 +1748,12 @@
       <c r="N9" s="4">
         <v>0</v>
       </c>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
@@ -1798,8 +1805,12 @@
       <c r="N10" s="4">
         <v>0</v>
       </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0</v>
+      </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
@@ -1851,8 +1862,12 @@
       <c r="N11" s="4">
         <v>0</v>
       </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0</v>
+      </c>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
@@ -1904,8 +1919,12 @@
       <c r="N12" s="4">
         <v>0</v>
       </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
+        <v>0</v>
+      </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
@@ -1957,8 +1976,12 @@
       <c r="N13" s="4">
         <v>0</v>
       </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0</v>
+      </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
@@ -2010,8 +2033,12 @@
       <c r="N14" s="4">
         <v>0</v>
       </c>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
+        <v>0</v>
+      </c>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
@@ -2063,8 +2090,12 @@
       <c r="N15" s="4">
         <v>0</v>
       </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
+      <c r="O15" s="4">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4">
+        <v>0</v>
+      </c>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
@@ -2116,8 +2147,12 @@
       <c r="N16" s="4">
         <v>0</v>
       </c>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0</v>
+      </c>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
@@ -2169,8 +2204,12 @@
       <c r="N17" s="4">
         <v>0</v>
       </c>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
+      <c r="O17" s="4">
+        <v>0</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0</v>
+      </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
@@ -2222,8 +2261,12 @@
       <c r="N18" s="4">
         <v>0</v>
       </c>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
+      <c r="O18" s="4">
+        <v>0</v>
+      </c>
+      <c r="P18" s="4">
+        <v>0</v>
+      </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
@@ -2275,8 +2318,12 @@
       <c r="N19" s="4">
         <v>0</v>
       </c>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
+      <c r="O19" s="4">
+        <v>0</v>
+      </c>
+      <c r="P19" s="4">
+        <v>0</v>
+      </c>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
@@ -2328,8 +2375,12 @@
       <c r="N20" s="4">
         <v>1</v>
       </c>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
+      <c r="O20" s="4">
+        <v>0</v>
+      </c>
+      <c r="P20" s="4">
+        <v>0</v>
+      </c>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
@@ -2381,8 +2432,12 @@
       <c r="N21" s="4">
         <v>1</v>
       </c>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
+      <c r="O21" s="4">
+        <v>0</v>
+      </c>
+      <c r="P21" s="4">
+        <v>0</v>
+      </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
@@ -2434,8 +2489,12 @@
       <c r="N22" s="4">
         <v>0</v>
       </c>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
+      <c r="O22" s="4">
+        <v>0</v>
+      </c>
+      <c r="P22" s="4">
+        <v>0</v>
+      </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
@@ -2487,8 +2546,12 @@
       <c r="N23" s="4">
         <v>1</v>
       </c>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
+      <c r="O23" s="4">
+        <v>0</v>
+      </c>
+      <c r="P23" s="4">
+        <v>0</v>
+      </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
@@ -2540,8 +2603,12 @@
       <c r="N24" s="4">
         <v>30</v>
       </c>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
+      <c r="O24" s="4">
+        <v>20</v>
+      </c>
+      <c r="P24" s="4">
+        <v>20</v>
+      </c>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
@@ -2567,34 +2634,38 @@
         <v>106</v>
       </c>
       <c r="F25" s="4">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G25" s="4">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H25" s="4">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I25" s="4">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J25" s="4">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K25" s="4">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L25" s="4">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M25" s="4">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N25" s="4">
-        <v>15</v>
-      </c>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="O25" s="4">
+        <v>30</v>
+      </c>
+      <c r="P25" s="4">
+        <v>30</v>
+      </c>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
@@ -2620,34 +2691,38 @@
         <v>107</v>
       </c>
       <c r="F26" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G26" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H26" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I26" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J26" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K26" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L26" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M26" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N26" s="4">
-        <v>10</v>
-      </c>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="O26" s="4">
+        <v>20</v>
+      </c>
+      <c r="P26" s="4">
+        <v>20</v>
+      </c>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
@@ -2726,42 +2801,48 @@
       <c r="E29" s="5"/>
       <c r="F29" s="4">
         <f>SUM(F5:F28)</f>
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="G29" s="4">
         <f>SUM(G5:G26)</f>
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="H29" s="4">
         <f>SUM(H5:H28)</f>
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="I29" s="4">
         <f>SUM(I5:I28)</f>
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="J29" s="4">
         <f>SUM(J5:J27)</f>
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="K29" s="4">
         <f>SUM(K5:K27)</f>
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="L29" s="4">
         <f>SUM(L5:L26)</f>
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="M29" s="4">
         <f>SUM(M5:M27)</f>
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="N29" s="4">
         <f>SUM(N5:N27)</f>
-        <v>58</v>
-      </c>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
+        <v>83</v>
+      </c>
+      <c r="O29" s="4">
+        <f>SUM(O6:O27)</f>
+        <v>70</v>
+      </c>
+      <c r="P29" s="4">
+        <f>SUM(P5:P27)</f>
+        <v>70</v>
+      </c>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
@@ -3226,6 +3307,7 @@
     <mergeCell ref="B30:D30"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/ADI-scrum-BrndownChart.xlsx
+++ b/ADI-scrum-BrndownChart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="0" windowWidth="24360" windowHeight="17120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27380" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="ADI-burndown" sheetId="4" r:id="rId1"/>
@@ -977,11 +977,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2112537208"/>
-        <c:axId val="2112541944"/>
+        <c:axId val="2094721368"/>
+        <c:axId val="2094724344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2112537208"/>
+        <c:axId val="2094721368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -990,7 +990,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112541944"/>
+        <c:crossAx val="2094724344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -998,7 +998,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2112541944"/>
+        <c:axId val="2094724344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1009,7 +1009,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112537208"/>
+        <c:crossAx val="2094721368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1353,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Z53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3307,7 +3307,6 @@
     <mergeCell ref="B30:D30"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/ADI-scrum-BrndownChart.xlsx
+++ b/ADI-scrum-BrndownChart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27380" windowHeight="13020"/>
+    <workbookView xWindow="500" yWindow="4660" windowWidth="27380" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="ADI-burndown" sheetId="4" r:id="rId1"/>
@@ -977,11 +977,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2094721368"/>
-        <c:axId val="2094724344"/>
+        <c:axId val="2067934808"/>
+        <c:axId val="2067937832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2094721368"/>
+        <c:axId val="2067934808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -990,7 +990,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2094724344"/>
+        <c:crossAx val="2067937832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -998,7 +998,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2094724344"/>
+        <c:axId val="2067937832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1009,7 +1009,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2094721368"/>
+        <c:crossAx val="2067934808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1353,7 +1353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Z53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>

--- a/ADI-scrum-BrndownChart.xlsx
+++ b/ADI-scrum-BrndownChart.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="4660" windowWidth="27380" windowHeight="13020"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ADI-burndown" sheetId="4" r:id="rId1"/>
     <sheet name="Plan" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint 1" sheetId="5" r:id="rId3"/>
+    <sheet name="Sprint 2" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="129">
   <si>
     <t>Project</t>
   </si>
@@ -349,16 +351,73 @@
     <t>Day 1 Fred</t>
   </si>
   <si>
-    <t>Skriva</t>
-  </si>
-  <si>
-    <t>Testa</t>
-  </si>
-  <si>
     <t>Git setup</t>
   </si>
   <si>
     <t>Skapa Interface för Cart,Category Prod, Users</t>
+  </si>
+  <si>
+    <t>Planera Console</t>
+  </si>
+  <si>
+    <t>Skriva switch</t>
+  </si>
+  <si>
+    <t>Create Category</t>
+  </si>
+  <si>
+    <t>Create Prodyct</t>
+  </si>
+  <si>
+    <t>Create User</t>
+  </si>
+  <si>
+    <t>Edit Category</t>
+  </si>
+  <si>
+    <t>Edit Product</t>
+  </si>
+  <si>
+    <t>Edit User</t>
+  </si>
+  <si>
+    <t>Validate User</t>
+  </si>
+  <si>
+    <t>List Products in Category</t>
+  </si>
+  <si>
+    <t>Search Product by name</t>
+  </si>
+  <si>
+    <t>Task 4.3</t>
+  </si>
+  <si>
+    <t>Task 4.5</t>
+  </si>
+  <si>
+    <t>Task 4.6</t>
+  </si>
+  <si>
+    <t>Task 4.7</t>
+  </si>
+  <si>
+    <t>Task 4.8</t>
+  </si>
+  <si>
+    <t>Task 4.9</t>
+  </si>
+  <si>
+    <t>Task 4.10</t>
+  </si>
+  <si>
+    <t>Task 4.11</t>
+  </si>
+  <si>
+    <t>Task 4.12</t>
+  </si>
+  <si>
+    <t>Task 4.4</t>
   </si>
 </sst>
 </file>
@@ -471,7 +530,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -677,8 +736,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -712,8 +782,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -784,8 +878,18 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="57">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -812,12 +916,36 @@
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -860,42 +988,42 @@
           <c:order val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'ADI-burndown'!$F$29:$Z$29</c:f>
+              <c:f>'ADI-burndown'!$F$37:$Z$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>227.0</c:v>
+                  <c:v>239.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>227.0</c:v>
+                  <c:v>239.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>214.0</c:v>
+                  <c:v>226.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>193.0</c:v>
+                  <c:v>205.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>193.0</c:v>
+                  <c:v>205.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>155.0</c:v>
+                  <c:v>167.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>140.0</c:v>
+                  <c:v>152.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>94.0</c:v>
+                  <c:v>111.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>83.0</c:v>
+                  <c:v>95.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>70.0</c:v>
+                  <c:v>92.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>70.0</c:v>
+                  <c:v>72.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -907,7 +1035,7 @@
           <c:order val="1"/>
           <c:val>
             <c:numRef>
-              <c:f>'ADI-burndown'!$F$30:$Z$30</c:f>
+              <c:f>'ADI-burndown'!$F$38:$Z$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -977,11 +1105,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2067934808"/>
-        <c:axId val="2067937832"/>
+        <c:axId val="2085719976"/>
+        <c:axId val="2085722952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2067934808"/>
+        <c:axId val="2085719976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -990,7 +1118,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2067937832"/>
+        <c:crossAx val="2085722952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -998,7 +1126,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2067937832"/>
+        <c:axId val="2085722952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1009,7 +1137,331 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2067934808"/>
+        <c:crossAx val="2085719976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.140224628171479"/>
+          <c:y val="0.0833333333333333"/>
+          <c:w val="0.683923665791776"/>
+          <c:h val="0.822469378827647"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 1'!$E$23:$O$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>167.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>167.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>154.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>133.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>133.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 1'!$E$24:$O$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2092128216"/>
+        <c:axId val="2092132264"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2092128216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2092132264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2092132264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2092128216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 2'!$E$15:$O$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>72.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 2'!$E$16:$O$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2095461000"/>
+        <c:axId val="2095462408"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2095461000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2095462408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2095462408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2095461000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1037,14 +1489,84 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1511300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1765300</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1351,16 +1873,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Z53"/>
+  <dimension ref="B2:AA61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="AA24" sqref="AA24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="28.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="26" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="47" customHeight="1">
@@ -1526,16 +2049,36 @@
       <c r="P5" s="4">
         <v>0</v>
       </c>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
+      <c r="Q5" s="4">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4">
+        <v>0</v>
+      </c>
+      <c r="T5" s="4">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4">
+        <v>0</v>
+      </c>
+      <c r="V5" s="4">
+        <v>0</v>
+      </c>
+      <c r="W5" s="4">
+        <v>0</v>
+      </c>
+      <c r="X5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="2:26">
       <c r="B6" s="3" t="s">
@@ -1583,16 +2126,36 @@
       <c r="P6" s="4">
         <v>0</v>
       </c>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
+      <c r="Q6" s="4">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4">
+        <v>0</v>
+      </c>
+      <c r="V6" s="4">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4">
+        <v>0</v>
+      </c>
+      <c r="X6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="2:26">
       <c r="B7" s="3" t="s">
@@ -1640,16 +2203,36 @@
       <c r="P7" s="4">
         <v>0</v>
       </c>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
+      <c r="Q7" s="4">
+        <v>0</v>
+      </c>
+      <c r="R7" s="4">
+        <v>0</v>
+      </c>
+      <c r="S7" s="4">
+        <v>0</v>
+      </c>
+      <c r="T7" s="4">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4">
+        <v>0</v>
+      </c>
+      <c r="V7" s="4">
+        <v>0</v>
+      </c>
+      <c r="W7" s="4">
+        <v>0</v>
+      </c>
+      <c r="X7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="2:26">
       <c r="B8" s="3" t="s">
@@ -1697,16 +2280,36 @@
       <c r="P8" s="4">
         <v>0</v>
       </c>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
+      <c r="Q8" s="4">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4">
+        <v>0</v>
+      </c>
+      <c r="S8" s="4">
+        <v>0</v>
+      </c>
+      <c r="T8" s="4">
+        <v>0</v>
+      </c>
+      <c r="U8" s="4">
+        <v>0</v>
+      </c>
+      <c r="V8" s="4">
+        <v>0</v>
+      </c>
+      <c r="W8" s="4">
+        <v>0</v>
+      </c>
+      <c r="X8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="2:26">
       <c r="B9" s="3" t="s">
@@ -1754,16 +2357,36 @@
       <c r="P9" s="4">
         <v>0</v>
       </c>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
+      <c r="Q9" s="4">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4">
+        <v>0</v>
+      </c>
+      <c r="S9" s="4">
+        <v>0</v>
+      </c>
+      <c r="T9" s="4">
+        <v>0</v>
+      </c>
+      <c r="U9" s="4">
+        <v>0</v>
+      </c>
+      <c r="V9" s="4">
+        <v>0</v>
+      </c>
+      <c r="W9" s="4">
+        <v>0</v>
+      </c>
+      <c r="X9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="2:26">
       <c r="B10" s="3" t="s">
@@ -1811,16 +2434,36 @@
       <c r="P10" s="4">
         <v>0</v>
       </c>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
+      <c r="Q10" s="4">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4">
+        <v>0</v>
+      </c>
+      <c r="S10" s="4">
+        <v>0</v>
+      </c>
+      <c r="T10" s="4">
+        <v>0</v>
+      </c>
+      <c r="U10" s="4">
+        <v>0</v>
+      </c>
+      <c r="V10" s="4">
+        <v>0</v>
+      </c>
+      <c r="W10" s="4">
+        <v>0</v>
+      </c>
+      <c r="X10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="2:26">
       <c r="B11" s="3" t="s">
@@ -1868,16 +2511,36 @@
       <c r="P11" s="4">
         <v>0</v>
       </c>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
+      <c r="Q11" s="4">
+        <v>0</v>
+      </c>
+      <c r="R11" s="4">
+        <v>0</v>
+      </c>
+      <c r="S11" s="4">
+        <v>0</v>
+      </c>
+      <c r="T11" s="4">
+        <v>0</v>
+      </c>
+      <c r="U11" s="4">
+        <v>0</v>
+      </c>
+      <c r="V11" s="4">
+        <v>0</v>
+      </c>
+      <c r="W11" s="4">
+        <v>0</v>
+      </c>
+      <c r="X11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="2:26">
       <c r="B12" s="3" t="s">
@@ -1925,16 +2588,36 @@
       <c r="P12" s="4">
         <v>0</v>
       </c>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
+      <c r="Q12" s="4">
+        <v>0</v>
+      </c>
+      <c r="R12" s="4">
+        <v>0</v>
+      </c>
+      <c r="S12" s="4">
+        <v>0</v>
+      </c>
+      <c r="T12" s="4">
+        <v>0</v>
+      </c>
+      <c r="U12" s="4">
+        <v>0</v>
+      </c>
+      <c r="V12" s="4">
+        <v>0</v>
+      </c>
+      <c r="W12" s="4">
+        <v>0</v>
+      </c>
+      <c r="X12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="2:26">
       <c r="B13" s="3" t="s">
@@ -1982,16 +2665,36 @@
       <c r="P13" s="4">
         <v>0</v>
       </c>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
+      <c r="Q13" s="4">
+        <v>0</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0</v>
+      </c>
+      <c r="S13" s="4">
+        <v>0</v>
+      </c>
+      <c r="T13" s="4">
+        <v>0</v>
+      </c>
+      <c r="U13" s="4">
+        <v>0</v>
+      </c>
+      <c r="V13" s="4">
+        <v>0</v>
+      </c>
+      <c r="W13" s="4">
+        <v>0</v>
+      </c>
+      <c r="X13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="2:26">
       <c r="B14" s="3" t="s">
@@ -2039,16 +2742,36 @@
       <c r="P14" s="4">
         <v>0</v>
       </c>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
+      <c r="Q14" s="4">
+        <v>0</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+      <c r="S14" s="4">
+        <v>0</v>
+      </c>
+      <c r="T14" s="4">
+        <v>0</v>
+      </c>
+      <c r="U14" s="4">
+        <v>0</v>
+      </c>
+      <c r="V14" s="4">
+        <v>0</v>
+      </c>
+      <c r="W14" s="4">
+        <v>0</v>
+      </c>
+      <c r="X14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="2:26">
       <c r="B15" s="3" t="s">
@@ -2096,16 +2819,36 @@
       <c r="P15" s="4">
         <v>0</v>
       </c>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
+      <c r="Q15" s="4">
+        <v>0</v>
+      </c>
+      <c r="R15" s="4">
+        <v>0</v>
+      </c>
+      <c r="S15" s="4">
+        <v>0</v>
+      </c>
+      <c r="T15" s="4">
+        <v>0</v>
+      </c>
+      <c r="U15" s="4">
+        <v>0</v>
+      </c>
+      <c r="V15" s="4">
+        <v>0</v>
+      </c>
+      <c r="W15" s="4">
+        <v>0</v>
+      </c>
+      <c r="X15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="2:26">
       <c r="B16" s="3" t="s">
@@ -2118,7 +2861,7 @@
         <v>55</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F16" s="4">
         <v>3</v>
@@ -2153,18 +2896,38 @@
       <c r="P16" s="4">
         <v>0</v>
       </c>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-    </row>
-    <row r="17" spans="2:26">
+      <c r="Q16" s="4">
+        <v>0</v>
+      </c>
+      <c r="R16" s="4">
+        <v>0</v>
+      </c>
+      <c r="S16" s="4">
+        <v>0</v>
+      </c>
+      <c r="T16" s="4">
+        <v>0</v>
+      </c>
+      <c r="U16" s="4">
+        <v>0</v>
+      </c>
+      <c r="V16" s="4">
+        <v>0</v>
+      </c>
+      <c r="W16" s="4">
+        <v>0</v>
+      </c>
+      <c r="X16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27">
       <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
@@ -2210,18 +2973,38 @@
       <c r="P17" s="4">
         <v>0</v>
       </c>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-    </row>
-    <row r="18" spans="2:26">
+      <c r="Q17" s="4">
+        <v>0</v>
+      </c>
+      <c r="R17" s="4">
+        <v>0</v>
+      </c>
+      <c r="S17" s="4">
+        <v>0</v>
+      </c>
+      <c r="T17" s="4">
+        <v>0</v>
+      </c>
+      <c r="U17" s="4">
+        <v>0</v>
+      </c>
+      <c r="V17" s="4">
+        <v>0</v>
+      </c>
+      <c r="W17" s="4">
+        <v>0</v>
+      </c>
+      <c r="X17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27">
       <c r="B18" s="3" t="s">
         <v>14</v>
       </c>
@@ -2267,18 +3050,38 @@
       <c r="P18" s="4">
         <v>0</v>
       </c>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-    </row>
-    <row r="19" spans="2:26">
+      <c r="Q18" s="4">
+        <v>0</v>
+      </c>
+      <c r="R18" s="4">
+        <v>0</v>
+      </c>
+      <c r="S18" s="4">
+        <v>0</v>
+      </c>
+      <c r="T18" s="4">
+        <v>0</v>
+      </c>
+      <c r="U18" s="4">
+        <v>0</v>
+      </c>
+      <c r="V18" s="4">
+        <v>0</v>
+      </c>
+      <c r="W18" s="4">
+        <v>0</v>
+      </c>
+      <c r="X18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27">
       <c r="B19" s="3" t="s">
         <v>14</v>
       </c>
@@ -2289,7 +3092,7 @@
         <v>9</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F19" s="4">
         <v>5</v>
@@ -2324,18 +3127,38 @@
       <c r="P19" s="4">
         <v>0</v>
       </c>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-    </row>
-    <row r="20" spans="2:26">
+      <c r="Q19" s="4">
+        <v>0</v>
+      </c>
+      <c r="R19" s="4">
+        <v>0</v>
+      </c>
+      <c r="S19" s="4">
+        <v>0</v>
+      </c>
+      <c r="T19" s="4">
+        <v>0</v>
+      </c>
+      <c r="U19" s="4">
+        <v>0</v>
+      </c>
+      <c r="V19" s="4">
+        <v>0</v>
+      </c>
+      <c r="W19" s="4">
+        <v>0</v>
+      </c>
+      <c r="X19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27">
       <c r="B20" s="3" t="s">
         <v>14</v>
       </c>
@@ -2381,18 +3204,38 @@
       <c r="P20" s="4">
         <v>0</v>
       </c>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-    </row>
-    <row r="21" spans="2:26">
+      <c r="Q20" s="4">
+        <v>0</v>
+      </c>
+      <c r="R20" s="4">
+        <v>0</v>
+      </c>
+      <c r="S20" s="4">
+        <v>0</v>
+      </c>
+      <c r="T20" s="4">
+        <v>0</v>
+      </c>
+      <c r="U20" s="4">
+        <v>0</v>
+      </c>
+      <c r="V20" s="4">
+        <v>0</v>
+      </c>
+      <c r="W20" s="4">
+        <v>0</v>
+      </c>
+      <c r="X20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27">
       <c r="B21" s="3" t="s">
         <v>14</v>
       </c>
@@ -2438,18 +3281,38 @@
       <c r="P21" s="4">
         <v>0</v>
       </c>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-    </row>
-    <row r="22" spans="2:26">
+      <c r="Q21" s="4">
+        <v>0</v>
+      </c>
+      <c r="R21" s="4">
+        <v>0</v>
+      </c>
+      <c r="S21" s="4">
+        <v>0</v>
+      </c>
+      <c r="T21" s="4">
+        <v>0</v>
+      </c>
+      <c r="U21" s="4">
+        <v>0</v>
+      </c>
+      <c r="V21" s="4">
+        <v>0</v>
+      </c>
+      <c r="W21" s="4">
+        <v>0</v>
+      </c>
+      <c r="X21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27">
       <c r="B22" s="3" t="s">
         <v>14</v>
       </c>
@@ -2495,18 +3358,38 @@
       <c r="P22" s="4">
         <v>0</v>
       </c>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-    </row>
-    <row r="23" spans="2:26">
+      <c r="Q22" s="4">
+        <v>0</v>
+      </c>
+      <c r="R22" s="4">
+        <v>0</v>
+      </c>
+      <c r="S22" s="4">
+        <v>0</v>
+      </c>
+      <c r="T22" s="4">
+        <v>0</v>
+      </c>
+      <c r="U22" s="4">
+        <v>0</v>
+      </c>
+      <c r="V22" s="4">
+        <v>0</v>
+      </c>
+      <c r="W22" s="4">
+        <v>0</v>
+      </c>
+      <c r="X22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27">
       <c r="B23" s="3" t="s">
         <v>14</v>
       </c>
@@ -2552,18 +3435,38 @@
       <c r="P23" s="4">
         <v>0</v>
       </c>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-    </row>
-    <row r="24" spans="2:26">
+      <c r="Q23" s="4">
+        <v>0</v>
+      </c>
+      <c r="R23" s="4">
+        <v>0</v>
+      </c>
+      <c r="S23" s="4">
+        <v>0</v>
+      </c>
+      <c r="T23" s="4">
+        <v>0</v>
+      </c>
+      <c r="U23" s="4">
+        <v>0</v>
+      </c>
+      <c r="V23" s="4">
+        <v>0</v>
+      </c>
+      <c r="W23" s="4">
+        <v>0</v>
+      </c>
+      <c r="X23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27">
       <c r="B24" s="3" t="s">
         <v>14</v>
       </c>
@@ -2577,50 +3480,71 @@
         <v>82</v>
       </c>
       <c r="F24" s="4">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G24" s="4">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H24" s="4">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I24" s="4">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J24" s="4">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K24" s="4">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L24" s="4">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M24" s="4">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N24" s="4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O24" s="4">
         <v>20</v>
       </c>
       <c r="P24" s="4">
-        <v>20</v>
-      </c>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-    </row>
-    <row r="25" spans="2:26">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>0</v>
+      </c>
+      <c r="R24" s="4">
+        <v>0</v>
+      </c>
+      <c r="S24" s="4">
+        <v>0</v>
+      </c>
+      <c r="T24" s="4">
+        <v>0</v>
+      </c>
+      <c r="U24" s="4">
+        <v>0</v>
+      </c>
+      <c r="V24" s="4">
+        <v>0</v>
+      </c>
+      <c r="W24" s="4">
+        <v>0</v>
+      </c>
+      <c r="X24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="37"/>
+    </row>
+    <row r="25" spans="2:27">
       <c r="B25" s="3" t="s">
         <v>14</v>
       </c>
@@ -2631,53 +3555,73 @@
         <v>12</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F25" s="4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G25" s="4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H25" s="4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I25" s="4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J25" s="4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K25" s="4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L25" s="4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M25" s="4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N25" s="4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="O25" s="4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P25" s="4">
-        <v>30</v>
-      </c>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-    </row>
-    <row r="26" spans="2:26">
+        <v>15</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>15</v>
+      </c>
+      <c r="R25" s="4">
+        <v>15</v>
+      </c>
+      <c r="S25" s="4">
+        <v>15</v>
+      </c>
+      <c r="T25" s="4">
+        <v>15</v>
+      </c>
+      <c r="U25" s="4">
+        <v>15</v>
+      </c>
+      <c r="V25" s="4">
+        <v>15</v>
+      </c>
+      <c r="W25" s="4">
+        <v>15</v>
+      </c>
+      <c r="X25" s="4">
+        <v>15</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>15</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27">
       <c r="B26" s="3" t="s">
         <v>14</v>
       </c>
@@ -2688,380 +3632,984 @@
         <v>13</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F26" s="4">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G26" s="4">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="H26" s="4">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I26" s="4">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="J26" s="4">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K26" s="4">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="L26" s="4">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="M26" s="4">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="N26" s="4">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="O26" s="4">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="P26" s="4">
-        <v>20</v>
-      </c>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-    </row>
-    <row r="27" spans="2:26">
+        <v>9</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>9</v>
+      </c>
+      <c r="R26" s="4">
+        <v>9</v>
+      </c>
+      <c r="S26" s="4">
+        <v>9</v>
+      </c>
+      <c r="T26" s="4">
+        <v>9</v>
+      </c>
+      <c r="U26" s="4">
+        <v>9</v>
+      </c>
+      <c r="V26" s="4">
+        <v>9</v>
+      </c>
+      <c r="W26" s="4">
+        <v>9</v>
+      </c>
+      <c r="X26" s="4">
+        <v>9</v>
+      </c>
+      <c r="Y26" s="4">
+        <v>9</v>
+      </c>
+      <c r="Z26" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27">
       <c r="B27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-    </row>
-    <row r="28" spans="2:26">
+      <c r="C27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="4">
+        <v>9</v>
+      </c>
+      <c r="G27" s="4">
+        <v>9</v>
+      </c>
+      <c r="H27" s="4">
+        <v>9</v>
+      </c>
+      <c r="I27" s="4">
+        <v>9</v>
+      </c>
+      <c r="J27" s="4">
+        <v>9</v>
+      </c>
+      <c r="K27" s="4">
+        <v>9</v>
+      </c>
+      <c r="L27" s="4">
+        <v>9</v>
+      </c>
+      <c r="M27" s="4">
+        <v>9</v>
+      </c>
+      <c r="N27" s="4">
+        <v>9</v>
+      </c>
+      <c r="O27" s="4">
+        <v>9</v>
+      </c>
+      <c r="P27" s="4">
+        <v>9</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>9</v>
+      </c>
+      <c r="R27" s="4">
+        <v>9</v>
+      </c>
+      <c r="S27" s="4">
+        <v>9</v>
+      </c>
+      <c r="T27" s="4">
+        <v>9</v>
+      </c>
+      <c r="U27" s="4">
+        <v>9</v>
+      </c>
+      <c r="V27" s="4">
+        <v>9</v>
+      </c>
+      <c r="W27" s="4">
+        <v>9</v>
+      </c>
+      <c r="X27" s="4">
+        <v>9</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>9</v>
+      </c>
+      <c r="Z27" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27">
       <c r="B28" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
-    </row>
-    <row r="29" spans="2:26">
-      <c r="B29" s="35" t="s">
+      <c r="C28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" s="4">
+        <v>3</v>
+      </c>
+      <c r="G28" s="4">
+        <v>3</v>
+      </c>
+      <c r="H28" s="4">
+        <v>3</v>
+      </c>
+      <c r="I28" s="4">
+        <v>3</v>
+      </c>
+      <c r="J28" s="4">
+        <v>3</v>
+      </c>
+      <c r="K28" s="4">
+        <v>3</v>
+      </c>
+      <c r="L28" s="4">
+        <v>3</v>
+      </c>
+      <c r="M28" s="4">
+        <v>3</v>
+      </c>
+      <c r="N28" s="4">
+        <v>3</v>
+      </c>
+      <c r="O28" s="4">
+        <v>3</v>
+      </c>
+      <c r="P28" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>3</v>
+      </c>
+      <c r="R28" s="4">
+        <v>3</v>
+      </c>
+      <c r="S28" s="4">
+        <v>3</v>
+      </c>
+      <c r="T28" s="4">
+        <v>3</v>
+      </c>
+      <c r="U28" s="4">
+        <v>3</v>
+      </c>
+      <c r="V28" s="4">
+        <v>3</v>
+      </c>
+      <c r="W28" s="4">
+        <v>3</v>
+      </c>
+      <c r="X28" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z28" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27">
+      <c r="B29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="4">
+        <v>3</v>
+      </c>
+      <c r="G29" s="4">
+        <v>3</v>
+      </c>
+      <c r="H29" s="4">
+        <v>3</v>
+      </c>
+      <c r="I29" s="4">
+        <v>3</v>
+      </c>
+      <c r="J29" s="4">
+        <v>3</v>
+      </c>
+      <c r="K29" s="4">
+        <v>3</v>
+      </c>
+      <c r="L29" s="4">
+        <v>3</v>
+      </c>
+      <c r="M29" s="4">
+        <v>3</v>
+      </c>
+      <c r="N29" s="4">
+        <v>3</v>
+      </c>
+      <c r="O29" s="4">
+        <v>3</v>
+      </c>
+      <c r="P29" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>3</v>
+      </c>
+      <c r="R29" s="4">
+        <v>3</v>
+      </c>
+      <c r="S29" s="4">
+        <v>3</v>
+      </c>
+      <c r="T29" s="4">
+        <v>3</v>
+      </c>
+      <c r="U29" s="4">
+        <v>3</v>
+      </c>
+      <c r="V29" s="4">
+        <v>3</v>
+      </c>
+      <c r="W29" s="4">
+        <v>3</v>
+      </c>
+      <c r="X29" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z29" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27">
+      <c r="B30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="4">
+        <v>3</v>
+      </c>
+      <c r="G30" s="4">
+        <v>3</v>
+      </c>
+      <c r="H30" s="4">
+        <v>3</v>
+      </c>
+      <c r="I30" s="4">
+        <v>3</v>
+      </c>
+      <c r="J30" s="4">
+        <v>3</v>
+      </c>
+      <c r="K30" s="4">
+        <v>3</v>
+      </c>
+      <c r="L30" s="4">
+        <v>3</v>
+      </c>
+      <c r="M30" s="4">
+        <v>3</v>
+      </c>
+      <c r="N30" s="4">
+        <v>3</v>
+      </c>
+      <c r="O30" s="4">
+        <v>3</v>
+      </c>
+      <c r="P30" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>3</v>
+      </c>
+      <c r="R30" s="4">
+        <v>3</v>
+      </c>
+      <c r="S30" s="4">
+        <v>3</v>
+      </c>
+      <c r="T30" s="4">
+        <v>3</v>
+      </c>
+      <c r="U30" s="4">
+        <v>3</v>
+      </c>
+      <c r="V30" s="4">
+        <v>3</v>
+      </c>
+      <c r="W30" s="4">
+        <v>3</v>
+      </c>
+      <c r="X30" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y30" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z30" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27">
+      <c r="B31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F31" s="4">
+        <v>3</v>
+      </c>
+      <c r="G31" s="4">
+        <v>3</v>
+      </c>
+      <c r="H31" s="4">
+        <v>3</v>
+      </c>
+      <c r="I31" s="4">
+        <v>3</v>
+      </c>
+      <c r="J31" s="4">
+        <v>3</v>
+      </c>
+      <c r="K31" s="4">
+        <v>3</v>
+      </c>
+      <c r="L31" s="4">
+        <v>3</v>
+      </c>
+      <c r="M31" s="4">
+        <v>3</v>
+      </c>
+      <c r="N31" s="4">
+        <v>3</v>
+      </c>
+      <c r="O31" s="4">
+        <v>3</v>
+      </c>
+      <c r="P31" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>3</v>
+      </c>
+      <c r="R31" s="4">
+        <v>3</v>
+      </c>
+      <c r="S31" s="4">
+        <v>3</v>
+      </c>
+      <c r="T31" s="4">
+        <v>3</v>
+      </c>
+      <c r="U31" s="4">
+        <v>3</v>
+      </c>
+      <c r="V31" s="4">
+        <v>3</v>
+      </c>
+      <c r="W31" s="4">
+        <v>3</v>
+      </c>
+      <c r="X31" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y31" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z31" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:27">
+      <c r="B32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" s="4">
+        <v>3</v>
+      </c>
+      <c r="G32" s="4">
+        <v>3</v>
+      </c>
+      <c r="H32" s="4">
+        <v>3</v>
+      </c>
+      <c r="I32" s="4">
+        <v>3</v>
+      </c>
+      <c r="J32" s="4">
+        <v>3</v>
+      </c>
+      <c r="K32" s="4">
+        <v>3</v>
+      </c>
+      <c r="L32" s="4">
+        <v>3</v>
+      </c>
+      <c r="M32" s="4">
+        <v>3</v>
+      </c>
+      <c r="N32" s="4">
+        <v>3</v>
+      </c>
+      <c r="O32" s="4">
+        <v>3</v>
+      </c>
+      <c r="P32" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>3</v>
+      </c>
+      <c r="R32" s="4">
+        <v>3</v>
+      </c>
+      <c r="S32" s="4">
+        <v>3</v>
+      </c>
+      <c r="T32" s="4">
+        <v>3</v>
+      </c>
+      <c r="U32" s="4">
+        <v>3</v>
+      </c>
+      <c r="V32" s="4">
+        <v>3</v>
+      </c>
+      <c r="W32" s="4">
+        <v>3</v>
+      </c>
+      <c r="X32" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y32" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z32" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26">
+      <c r="B33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33" s="4">
+        <v>3</v>
+      </c>
+      <c r="G33" s="4">
+        <v>3</v>
+      </c>
+      <c r="H33" s="4">
+        <v>3</v>
+      </c>
+      <c r="I33" s="4">
+        <v>3</v>
+      </c>
+      <c r="J33" s="4">
+        <v>3</v>
+      </c>
+      <c r="K33" s="4">
+        <v>3</v>
+      </c>
+      <c r="L33" s="4">
+        <v>3</v>
+      </c>
+      <c r="M33" s="4">
+        <v>3</v>
+      </c>
+      <c r="N33" s="4">
+        <v>3</v>
+      </c>
+      <c r="O33" s="4">
+        <v>3</v>
+      </c>
+      <c r="P33" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>3</v>
+      </c>
+      <c r="R33" s="4">
+        <v>3</v>
+      </c>
+      <c r="S33" s="4">
+        <v>3</v>
+      </c>
+      <c r="T33" s="4">
+        <v>3</v>
+      </c>
+      <c r="U33" s="4">
+        <v>3</v>
+      </c>
+      <c r="V33" s="4">
+        <v>3</v>
+      </c>
+      <c r="W33" s="4">
+        <v>3</v>
+      </c>
+      <c r="X33" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y33" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z33" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26">
+      <c r="B34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F34" s="4">
+        <v>3</v>
+      </c>
+      <c r="G34" s="4">
+        <v>3</v>
+      </c>
+      <c r="H34" s="4">
+        <v>3</v>
+      </c>
+      <c r="I34" s="4">
+        <v>3</v>
+      </c>
+      <c r="J34" s="4">
+        <v>3</v>
+      </c>
+      <c r="K34" s="4">
+        <v>3</v>
+      </c>
+      <c r="L34" s="4">
+        <v>3</v>
+      </c>
+      <c r="M34" s="4">
+        <v>3</v>
+      </c>
+      <c r="N34" s="4">
+        <v>3</v>
+      </c>
+      <c r="O34" s="4">
+        <v>3</v>
+      </c>
+      <c r="P34" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>3</v>
+      </c>
+      <c r="R34" s="4">
+        <v>3</v>
+      </c>
+      <c r="S34" s="4">
+        <v>3</v>
+      </c>
+      <c r="T34" s="4">
+        <v>3</v>
+      </c>
+      <c r="U34" s="4">
+        <v>3</v>
+      </c>
+      <c r="V34" s="4">
+        <v>3</v>
+      </c>
+      <c r="W34" s="4">
+        <v>3</v>
+      </c>
+      <c r="X34" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y34" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z34" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26">
+      <c r="B35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F35" s="4">
+        <v>3</v>
+      </c>
+      <c r="G35" s="4">
+        <v>3</v>
+      </c>
+      <c r="H35" s="4">
+        <v>3</v>
+      </c>
+      <c r="I35" s="4">
+        <v>3</v>
+      </c>
+      <c r="J35" s="4">
+        <v>3</v>
+      </c>
+      <c r="K35" s="4">
+        <v>3</v>
+      </c>
+      <c r="L35" s="4">
+        <v>3</v>
+      </c>
+      <c r="M35" s="4">
+        <v>3</v>
+      </c>
+      <c r="N35" s="4">
+        <v>3</v>
+      </c>
+      <c r="O35" s="4">
+        <v>3</v>
+      </c>
+      <c r="P35" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>3</v>
+      </c>
+      <c r="R35" s="4">
+        <v>3</v>
+      </c>
+      <c r="S35" s="4">
+        <v>3</v>
+      </c>
+      <c r="T35" s="4">
+        <v>3</v>
+      </c>
+      <c r="U35" s="4">
+        <v>3</v>
+      </c>
+      <c r="V35" s="4">
+        <v>3</v>
+      </c>
+      <c r="W35" s="4">
+        <v>3</v>
+      </c>
+      <c r="X35" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y35" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z35" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:26">
+      <c r="B36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="4">
+        <v>15</v>
+      </c>
+      <c r="G36" s="4">
+        <v>15</v>
+      </c>
+      <c r="H36" s="4">
+        <v>15</v>
+      </c>
+      <c r="I36" s="4">
+        <v>15</v>
+      </c>
+      <c r="J36" s="4">
+        <v>15</v>
+      </c>
+      <c r="K36" s="4">
+        <v>15</v>
+      </c>
+      <c r="L36" s="4">
+        <v>15</v>
+      </c>
+      <c r="M36" s="4">
+        <v>15</v>
+      </c>
+      <c r="N36" s="4">
+        <v>15</v>
+      </c>
+      <c r="O36" s="4">
+        <v>15</v>
+      </c>
+      <c r="P36" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>15</v>
+      </c>
+      <c r="R36" s="4">
+        <v>15</v>
+      </c>
+      <c r="S36" s="4">
+        <v>15</v>
+      </c>
+      <c r="T36" s="4">
+        <v>15</v>
+      </c>
+      <c r="U36" s="4">
+        <v>15</v>
+      </c>
+      <c r="V36" s="4">
+        <v>15</v>
+      </c>
+      <c r="W36" s="4">
+        <v>15</v>
+      </c>
+      <c r="X36" s="4">
+        <v>15</v>
+      </c>
+      <c r="Y36" s="4">
+        <v>15</v>
+      </c>
+      <c r="Z36" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26">
+      <c r="B37" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="4">
-        <f>SUM(F5:F28)</f>
-        <v>227</v>
-      </c>
-      <c r="G29" s="4">
-        <f>SUM(G5:G26)</f>
-        <v>227</v>
-      </c>
-      <c r="H29" s="4">
-        <f>SUM(H5:H28)</f>
-        <v>214</v>
-      </c>
-      <c r="I29" s="4">
-        <f>SUM(I5:I28)</f>
-        <v>193</v>
-      </c>
-      <c r="J29" s="4">
-        <f>SUM(J5:J27)</f>
-        <v>193</v>
-      </c>
-      <c r="K29" s="4">
-        <f>SUM(K5:K27)</f>
-        <v>155</v>
-      </c>
-      <c r="L29" s="4">
-        <f>SUM(L5:L26)</f>
-        <v>140</v>
-      </c>
-      <c r="M29" s="4">
-        <f>SUM(M5:M27)</f>
-        <v>94</v>
-      </c>
-      <c r="N29" s="4">
-        <f>SUM(N5:N27)</f>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="4">
+        <f t="shared" ref="F37:P37" si="0">SUM(F5:F36)</f>
+        <v>239</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="0"/>
+        <v>239</v>
+      </c>
+      <c r="H37" s="4">
+        <f t="shared" si="0"/>
+        <v>226</v>
+      </c>
+      <c r="I37" s="4">
+        <f t="shared" si="0"/>
+        <v>205</v>
+      </c>
+      <c r="J37" s="4">
+        <f t="shared" si="0"/>
+        <v>205</v>
+      </c>
+      <c r="K37" s="4">
+        <f t="shared" si="0"/>
+        <v>167</v>
+      </c>
+      <c r="L37" s="4">
+        <f t="shared" si="0"/>
+        <v>152</v>
+      </c>
+      <c r="M37" s="4">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="N37" s="4">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="O37" s="4">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="P37" s="4">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+    </row>
+    <row r="38" spans="2:26">
+      <c r="B38" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="O29" s="4">
-        <f>SUM(O6:O27)</f>
-        <v>70</v>
-      </c>
-      <c r="P29" s="4">
-        <f>SUM(P5:P27)</f>
-        <v>70</v>
-      </c>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
-    </row>
-    <row r="30" spans="2:26">
-      <c r="B30" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="4">
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="4">
         <v>240</v>
       </c>
-      <c r="G30" s="4">
-        <f t="shared" ref="G30:L30" si="0">F30-15</f>
+      <c r="G38" s="4">
+        <f t="shared" ref="G38:L38" si="1">F38-15</f>
         <v>225</v>
       </c>
-      <c r="H30" s="4">
-        <f t="shared" si="0"/>
+      <c r="H38" s="4">
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
-      <c r="I30" s="4">
-        <f t="shared" si="0"/>
+      <c r="I38" s="4">
+        <f t="shared" si="1"/>
         <v>195</v>
       </c>
-      <c r="J30" s="4">
-        <f t="shared" si="0"/>
+      <c r="J38" s="4">
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="K30" s="4">
-        <f t="shared" si="0"/>
+      <c r="K38" s="4">
+        <f t="shared" si="1"/>
         <v>165</v>
       </c>
-      <c r="L30" s="4">
-        <f t="shared" si="0"/>
+      <c r="L38" s="4">
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="M30" s="4">
-        <f t="shared" ref="M30:V30" si="1">L30-15</f>
+      <c r="M38" s="4">
+        <f t="shared" ref="M38:V38" si="2">L38-15</f>
         <v>135</v>
       </c>
-      <c r="N30" s="4">
-        <f t="shared" si="1"/>
+      <c r="N38" s="4">
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="O30" s="4">
-        <f t="shared" si="1"/>
+      <c r="O38" s="4">
+        <f t="shared" si="2"/>
         <v>105</v>
       </c>
-      <c r="P30" s="4">
-        <f t="shared" si="1"/>
+      <c r="P38" s="4">
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="Q30" s="4">
-        <f t="shared" si="1"/>
+      <c r="Q38" s="4">
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="R30" s="4">
-        <f t="shared" si="1"/>
+      <c r="R38" s="4">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="S30" s="4">
-        <f t="shared" si="1"/>
+      <c r="S38" s="4">
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="T30" s="4">
-        <f t="shared" si="1"/>
+      <c r="T38" s="4">
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="U30" s="4">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="V30" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="19"/>
-      <c r="Z30" s="19"/>
-    </row>
-    <row r="31" spans="2:26">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-    </row>
-    <row r="32" spans="2:26">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-    </row>
-    <row r="33" spans="2:15">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-    </row>
-    <row r="34" spans="2:15">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-    </row>
-    <row r="35" spans="2:15">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-    </row>
-    <row r="36" spans="2:15">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-    </row>
-    <row r="37" spans="2:15">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-    </row>
-    <row r="38" spans="2:15">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-    </row>
-    <row r="39" spans="2:15">
+      <c r="U38" s="4">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="V38" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="19"/>
+      <c r="Z38" s="19"/>
+    </row>
+    <row r="39" spans="2:26">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -3077,7 +4625,7 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:26">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -3093,7 +4641,7 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="2:15">
+    <row r="41" spans="2:26">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -3109,7 +4657,7 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="2:15">
+    <row r="42" spans="2:26">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -3125,7 +4673,7 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="2:15">
+    <row r="43" spans="2:26">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -3141,7 +4689,7 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="2:15">
+    <row r="44" spans="2:26">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -3157,7 +4705,7 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="2:15">
+    <row r="45" spans="2:26">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -3173,7 +4721,7 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="2:15">
+    <row r="46" spans="2:26">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -3189,7 +4737,7 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="2:15">
+    <row r="47" spans="2:26">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -3205,7 +4753,7 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="2:15">
+    <row r="48" spans="2:26">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -3301,12 +4849,141 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
+    <row r="54" spans="2:15">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+    </row>
+    <row r="55" spans="2:15">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+    </row>
+    <row r="56" spans="2:15">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+    </row>
+    <row r="57" spans="2:15">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+    </row>
+    <row r="58" spans="2:15">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+    </row>
+    <row r="59" spans="2:15">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+    </row>
+    <row r="60" spans="2:15">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+    </row>
+    <row r="61" spans="2:15">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -3747,4 +5424,1863 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15" thickBot="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="N2" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="O2" s="30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="4">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4">
+        <v>9</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3</v>
+      </c>
+      <c r="F9" s="4">
+        <v>3</v>
+      </c>
+      <c r="G9" s="4">
+        <v>3</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="4">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4">
+        <v>9</v>
+      </c>
+      <c r="G10" s="4">
+        <v>9</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="4">
+        <v>6</v>
+      </c>
+      <c r="F11" s="4">
+        <v>6</v>
+      </c>
+      <c r="G11" s="4">
+        <v>6</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="4">
+        <v>30</v>
+      </c>
+      <c r="F12" s="4">
+        <v>30</v>
+      </c>
+      <c r="G12" s="4">
+        <v>30</v>
+      </c>
+      <c r="H12" s="4">
+        <v>29</v>
+      </c>
+      <c r="I12" s="4">
+        <v>29</v>
+      </c>
+      <c r="J12" s="4">
+        <v>3</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2</v>
+      </c>
+      <c r="H13" s="4">
+        <v>2</v>
+      </c>
+      <c r="I13" s="4">
+        <v>2</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="4">
+        <v>3</v>
+      </c>
+      <c r="F14" s="4">
+        <v>3</v>
+      </c>
+      <c r="G14" s="4">
+        <v>3</v>
+      </c>
+      <c r="H14" s="4">
+        <v>3</v>
+      </c>
+      <c r="I14" s="4">
+        <v>3</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2</v>
+      </c>
+      <c r="G15" s="4">
+        <v>2</v>
+      </c>
+      <c r="H15" s="4">
+        <v>2</v>
+      </c>
+      <c r="I15" s="4">
+        <v>2</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="4">
+        <v>30</v>
+      </c>
+      <c r="F16" s="4">
+        <v>30</v>
+      </c>
+      <c r="G16" s="4">
+        <v>30</v>
+      </c>
+      <c r="H16" s="4">
+        <v>30</v>
+      </c>
+      <c r="I16" s="4">
+        <v>30</v>
+      </c>
+      <c r="J16" s="4">
+        <v>30</v>
+      </c>
+      <c r="K16" s="4">
+        <v>21</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="4">
+        <v>5</v>
+      </c>
+      <c r="F17" s="4">
+        <v>5</v>
+      </c>
+      <c r="G17" s="4">
+        <v>5</v>
+      </c>
+      <c r="H17" s="4">
+        <v>5</v>
+      </c>
+      <c r="I17" s="4">
+        <v>5</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="4">
+        <v>8</v>
+      </c>
+      <c r="F18" s="4">
+        <v>8</v>
+      </c>
+      <c r="G18" s="4">
+        <v>8</v>
+      </c>
+      <c r="H18" s="4">
+        <v>8</v>
+      </c>
+      <c r="I18" s="4">
+        <v>8</v>
+      </c>
+      <c r="J18" s="4">
+        <v>8</v>
+      </c>
+      <c r="K18" s="4">
+        <v>8</v>
+      </c>
+      <c r="L18" s="4">
+        <v>3</v>
+      </c>
+      <c r="M18" s="4">
+        <v>1</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="4">
+        <v>8</v>
+      </c>
+      <c r="F19" s="4">
+        <v>8</v>
+      </c>
+      <c r="G19" s="4">
+        <v>8</v>
+      </c>
+      <c r="H19" s="4">
+        <v>8</v>
+      </c>
+      <c r="I19" s="4">
+        <v>8</v>
+      </c>
+      <c r="J19" s="4">
+        <v>8</v>
+      </c>
+      <c r="K19" s="4">
+        <v>8</v>
+      </c>
+      <c r="L19" s="4">
+        <v>3</v>
+      </c>
+      <c r="M19" s="4">
+        <v>1</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="4">
+        <v>8</v>
+      </c>
+      <c r="F20" s="4">
+        <v>8</v>
+      </c>
+      <c r="G20" s="4">
+        <v>8</v>
+      </c>
+      <c r="H20" s="4">
+        <v>8</v>
+      </c>
+      <c r="I20" s="4">
+        <v>8</v>
+      </c>
+      <c r="J20" s="4">
+        <v>8</v>
+      </c>
+      <c r="K20" s="4">
+        <v>5</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="4">
+        <v>8</v>
+      </c>
+      <c r="F21" s="4">
+        <v>8</v>
+      </c>
+      <c r="G21" s="4">
+        <v>8</v>
+      </c>
+      <c r="H21" s="4">
+        <v>8</v>
+      </c>
+      <c r="I21" s="4">
+        <v>8</v>
+      </c>
+      <c r="J21" s="4">
+        <v>8</v>
+      </c>
+      <c r="K21" s="4">
+        <v>8</v>
+      </c>
+      <c r="L21" s="4">
+        <v>3</v>
+      </c>
+      <c r="M21" s="4">
+        <v>1</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="4">
+        <v>30</v>
+      </c>
+      <c r="F22" s="4">
+        <v>30</v>
+      </c>
+      <c r="G22" s="4">
+        <v>30</v>
+      </c>
+      <c r="H22" s="4">
+        <v>30</v>
+      </c>
+      <c r="I22" s="4">
+        <v>30</v>
+      </c>
+      <c r="J22" s="4">
+        <v>30</v>
+      </c>
+      <c r="K22" s="4">
+        <v>30</v>
+      </c>
+      <c r="L22" s="4">
+        <v>30</v>
+      </c>
+      <c r="M22" s="4">
+        <v>20</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="4">
+        <f>SUM(E3:E22)</f>
+        <v>167</v>
+      </c>
+      <c r="F23" s="4">
+        <f>SUM(F3:F22)</f>
+        <v>167</v>
+      </c>
+      <c r="G23" s="4">
+        <f>SUM(G3:G22)</f>
+        <v>154</v>
+      </c>
+      <c r="H23" s="4">
+        <f>SUM(H3:H22)</f>
+        <v>133</v>
+      </c>
+      <c r="I23" s="4">
+        <f>SUM(I3:I22)</f>
+        <v>133</v>
+      </c>
+      <c r="J23" s="4">
+        <f>SUM(J3:J22)</f>
+        <v>95</v>
+      </c>
+      <c r="K23" s="4">
+        <f>SUM(K3:K22)</f>
+        <v>80</v>
+      </c>
+      <c r="L23" s="4">
+        <f>SUM(L3:L22)</f>
+        <v>39</v>
+      </c>
+      <c r="M23" s="4">
+        <f>SUM(M3:M22)</f>
+        <v>23</v>
+      </c>
+      <c r="N23" s="4">
+        <f>SUM(N3:N22)</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="4">
+        <f>SUM(O3:O22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="4">
+        <v>120</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" ref="F24:O24" si="0">E24-15</f>
+        <v>105</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="M24" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15" thickBot="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="N2" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="O2" s="30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="4">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4">
+        <v>15</v>
+      </c>
+      <c r="H3" s="4">
+        <v>15</v>
+      </c>
+      <c r="I3" s="4">
+        <v>15</v>
+      </c>
+      <c r="J3" s="4">
+        <v>15</v>
+      </c>
+      <c r="K3" s="4">
+        <v>15</v>
+      </c>
+      <c r="L3" s="4">
+        <v>15</v>
+      </c>
+      <c r="M3" s="4">
+        <v>15</v>
+      </c>
+      <c r="N3" s="4">
+        <v>15</v>
+      </c>
+      <c r="O3" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="4">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4">
+        <v>9</v>
+      </c>
+      <c r="G4" s="4">
+        <v>9</v>
+      </c>
+      <c r="H4" s="4">
+        <v>9</v>
+      </c>
+      <c r="I4" s="4">
+        <v>9</v>
+      </c>
+      <c r="J4" s="4">
+        <v>9</v>
+      </c>
+      <c r="K4" s="4">
+        <v>9</v>
+      </c>
+      <c r="L4" s="4">
+        <v>9</v>
+      </c>
+      <c r="M4" s="4">
+        <v>9</v>
+      </c>
+      <c r="N4" s="4">
+        <v>9</v>
+      </c>
+      <c r="O4" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="4">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4">
+        <v>9</v>
+      </c>
+      <c r="G5" s="4">
+        <v>9</v>
+      </c>
+      <c r="H5" s="4">
+        <v>9</v>
+      </c>
+      <c r="I5" s="4">
+        <v>9</v>
+      </c>
+      <c r="J5" s="4">
+        <v>9</v>
+      </c>
+      <c r="K5" s="4">
+        <v>9</v>
+      </c>
+      <c r="L5" s="4">
+        <v>9</v>
+      </c>
+      <c r="M5" s="4">
+        <v>9</v>
+      </c>
+      <c r="N5" s="4">
+        <v>9</v>
+      </c>
+      <c r="O5" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3</v>
+      </c>
+      <c r="G6" s="4">
+        <v>3</v>
+      </c>
+      <c r="H6" s="4">
+        <v>3</v>
+      </c>
+      <c r="I6" s="4">
+        <v>3</v>
+      </c>
+      <c r="J6" s="4">
+        <v>3</v>
+      </c>
+      <c r="K6" s="4">
+        <v>3</v>
+      </c>
+      <c r="L6" s="4">
+        <v>3</v>
+      </c>
+      <c r="M6" s="4">
+        <v>3</v>
+      </c>
+      <c r="N6" s="4">
+        <v>3</v>
+      </c>
+      <c r="O6" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3</v>
+      </c>
+      <c r="G7" s="4">
+        <v>3</v>
+      </c>
+      <c r="H7" s="4">
+        <v>3</v>
+      </c>
+      <c r="I7" s="4">
+        <v>3</v>
+      </c>
+      <c r="J7" s="4">
+        <v>3</v>
+      </c>
+      <c r="K7" s="4">
+        <v>3</v>
+      </c>
+      <c r="L7" s="4">
+        <v>3</v>
+      </c>
+      <c r="M7" s="4">
+        <v>3</v>
+      </c>
+      <c r="N7" s="4">
+        <v>3</v>
+      </c>
+      <c r="O7" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3</v>
+      </c>
+      <c r="F8" s="4">
+        <v>3</v>
+      </c>
+      <c r="G8" s="4">
+        <v>3</v>
+      </c>
+      <c r="H8" s="4">
+        <v>3</v>
+      </c>
+      <c r="I8" s="4">
+        <v>3</v>
+      </c>
+      <c r="J8" s="4">
+        <v>3</v>
+      </c>
+      <c r="K8" s="4">
+        <v>3</v>
+      </c>
+      <c r="L8" s="4">
+        <v>3</v>
+      </c>
+      <c r="M8" s="4">
+        <v>3</v>
+      </c>
+      <c r="N8" s="4">
+        <v>3</v>
+      </c>
+      <c r="O8" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3</v>
+      </c>
+      <c r="F9" s="4">
+        <v>3</v>
+      </c>
+      <c r="G9" s="4">
+        <v>3</v>
+      </c>
+      <c r="H9" s="4">
+        <v>3</v>
+      </c>
+      <c r="I9" s="4">
+        <v>3</v>
+      </c>
+      <c r="J9" s="4">
+        <v>3</v>
+      </c>
+      <c r="K9" s="4">
+        <v>3</v>
+      </c>
+      <c r="L9" s="4">
+        <v>3</v>
+      </c>
+      <c r="M9" s="4">
+        <v>3</v>
+      </c>
+      <c r="N9" s="4">
+        <v>3</v>
+      </c>
+      <c r="O9" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3</v>
+      </c>
+      <c r="G10" s="4">
+        <v>3</v>
+      </c>
+      <c r="H10" s="4">
+        <v>3</v>
+      </c>
+      <c r="I10" s="4">
+        <v>3</v>
+      </c>
+      <c r="J10" s="4">
+        <v>3</v>
+      </c>
+      <c r="K10" s="4">
+        <v>3</v>
+      </c>
+      <c r="L10" s="4">
+        <v>3</v>
+      </c>
+      <c r="M10" s="4">
+        <v>3</v>
+      </c>
+      <c r="N10" s="4">
+        <v>3</v>
+      </c>
+      <c r="O10" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3</v>
+      </c>
+      <c r="F11" s="4">
+        <v>3</v>
+      </c>
+      <c r="G11" s="4">
+        <v>3</v>
+      </c>
+      <c r="H11" s="4">
+        <v>3</v>
+      </c>
+      <c r="I11" s="4">
+        <v>3</v>
+      </c>
+      <c r="J11" s="4">
+        <v>3</v>
+      </c>
+      <c r="K11" s="4">
+        <v>3</v>
+      </c>
+      <c r="L11" s="4">
+        <v>3</v>
+      </c>
+      <c r="M11" s="4">
+        <v>3</v>
+      </c>
+      <c r="N11" s="4">
+        <v>3</v>
+      </c>
+      <c r="O11" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3</v>
+      </c>
+      <c r="F12" s="4">
+        <v>3</v>
+      </c>
+      <c r="G12" s="4">
+        <v>3</v>
+      </c>
+      <c r="H12" s="4">
+        <v>3</v>
+      </c>
+      <c r="I12" s="4">
+        <v>3</v>
+      </c>
+      <c r="J12" s="4">
+        <v>3</v>
+      </c>
+      <c r="K12" s="4">
+        <v>3</v>
+      </c>
+      <c r="L12" s="4">
+        <v>3</v>
+      </c>
+      <c r="M12" s="4">
+        <v>3</v>
+      </c>
+      <c r="N12" s="4">
+        <v>3</v>
+      </c>
+      <c r="O12" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="4">
+        <v>3</v>
+      </c>
+      <c r="F13" s="4">
+        <v>3</v>
+      </c>
+      <c r="G13" s="4">
+        <v>3</v>
+      </c>
+      <c r="H13" s="4">
+        <v>3</v>
+      </c>
+      <c r="I13" s="4">
+        <v>3</v>
+      </c>
+      <c r="J13" s="4">
+        <v>3</v>
+      </c>
+      <c r="K13" s="4">
+        <v>3</v>
+      </c>
+      <c r="L13" s="4">
+        <v>3</v>
+      </c>
+      <c r="M13" s="4">
+        <v>3</v>
+      </c>
+      <c r="N13" s="4">
+        <v>3</v>
+      </c>
+      <c r="O13" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="4">
+        <v>15</v>
+      </c>
+      <c r="F14" s="4">
+        <v>15</v>
+      </c>
+      <c r="G14" s="4">
+        <v>15</v>
+      </c>
+      <c r="H14" s="4">
+        <v>15</v>
+      </c>
+      <c r="I14" s="4">
+        <v>15</v>
+      </c>
+      <c r="J14" s="4">
+        <v>15</v>
+      </c>
+      <c r="K14" s="4">
+        <v>15</v>
+      </c>
+      <c r="L14" s="4">
+        <v>15</v>
+      </c>
+      <c r="M14" s="4">
+        <v>15</v>
+      </c>
+      <c r="N14" s="4">
+        <v>15</v>
+      </c>
+      <c r="O14" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="4">
+        <f>SUM(E3:E14)</f>
+        <v>72</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="4">
+        <v>120</v>
+      </c>
+      <c r="F16" s="4">
+        <f>E16-15</f>
+        <v>105</v>
+      </c>
+      <c r="G16" s="4">
+        <f>F16-15</f>
+        <v>90</v>
+      </c>
+      <c r="H16" s="4">
+        <f>G16-15</f>
+        <v>75</v>
+      </c>
+      <c r="I16" s="4">
+        <f>H16-15</f>
+        <v>60</v>
+      </c>
+      <c r="J16" s="4">
+        <f>I16-15</f>
+        <v>45</v>
+      </c>
+      <c r="K16" s="4">
+        <f>J16-15</f>
+        <v>30</v>
+      </c>
+      <c r="L16" s="4">
+        <f>K16-15</f>
+        <v>15</v>
+      </c>
+      <c r="M16" s="4">
+        <f>L16-15</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/ADI-scrum-BrndownChart.xlsx
+++ b/ADI-scrum-BrndownChart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="3"/>
+    <workbookView minimized="1" xWindow="1860" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ADI-burndown" sheetId="4" r:id="rId1"/>
@@ -878,14 +878,14 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1105,11 +1105,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2085719976"/>
-        <c:axId val="2085722952"/>
+        <c:axId val="2083358984"/>
+        <c:axId val="2083361960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2085719976"/>
+        <c:axId val="2083358984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1118,7 +1118,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085722952"/>
+        <c:crossAx val="2083361960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1126,7 +1126,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2085722952"/>
+        <c:axId val="2083361960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1137,14 +1137,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085719976"/>
+        <c:crossAx val="2083358984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1287,11 +1286,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2092128216"/>
-        <c:axId val="2092132264"/>
+        <c:axId val="2083452392"/>
+        <c:axId val="2083455368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2092128216"/>
+        <c:axId val="2083452392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1300,7 +1299,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2092132264"/>
+        <c:crossAx val="2083455368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1308,7 +1307,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2092132264"/>
+        <c:axId val="2083455368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1319,14 +1318,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2092128216"/>
+        <c:crossAx val="2083452392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1429,11 +1427,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2095461000"/>
-        <c:axId val="2095462408"/>
+        <c:axId val="2083491640"/>
+        <c:axId val="2083494616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2095461000"/>
+        <c:axId val="2083491640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1442,7 +1440,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2095462408"/>
+        <c:crossAx val="2083494616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1450,7 +1448,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2095462408"/>
+        <c:axId val="2083494616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1461,7 +1459,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2095461000"/>
+        <c:crossAx val="2083491640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3542,7 +3540,7 @@
       <c r="Z24" s="4">
         <v>0</v>
       </c>
-      <c r="AA24" s="37"/>
+      <c r="AA24" s="36"/>
     </row>
     <row r="25" spans="2:27">
       <c r="B25" s="3" t="s">
@@ -4469,11 +4467,11 @@
       </c>
     </row>
     <row r="37" spans="2:26">
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
       <c r="E37" s="5"/>
       <c r="F37" s="4">
         <f t="shared" ref="F37:P37" si="0">SUM(F5:F36)</f>
@@ -4531,11 +4529,11 @@
       <c r="Z37" s="4"/>
     </row>
     <row r="38" spans="2:26">
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
       <c r="E38" s="5"/>
       <c r="F38" s="4">
         <v>240</v>
@@ -4983,7 +4981,6 @@
     <mergeCell ref="B38:D38"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -6447,97 +6444,97 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
       <c r="D23" s="35"/>
       <c r="E23" s="4">
-        <f>SUM(E3:E22)</f>
+        <f t="shared" ref="E23:O23" si="0">SUM(E3:E22)</f>
         <v>167</v>
       </c>
       <c r="F23" s="4">
-        <f>SUM(F3:F22)</f>
+        <f t="shared" si="0"/>
         <v>167</v>
       </c>
       <c r="G23" s="4">
-        <f>SUM(G3:G22)</f>
+        <f t="shared" si="0"/>
         <v>154</v>
       </c>
       <c r="H23" s="4">
-        <f>SUM(H3:H22)</f>
+        <f t="shared" si="0"/>
         <v>133</v>
       </c>
       <c r="I23" s="4">
-        <f>SUM(I3:I22)</f>
+        <f t="shared" si="0"/>
         <v>133</v>
       </c>
       <c r="J23" s="4">
-        <f>SUM(J3:J22)</f>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="K23" s="4">
-        <f>SUM(K3:K22)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="L23" s="4">
-        <f>SUM(L3:L22)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="M23" s="4">
-        <f>SUM(M3:M22)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="N23" s="4">
-        <f>SUM(N3:N22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O23" s="4">
-        <f>SUM(O3:O22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
       <c r="D24" s="35"/>
       <c r="E24" s="4">
         <v>120</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" ref="F24:O24" si="0">E24-15</f>
+        <f t="shared" ref="F24:M24" si="1">E24-15</f>
         <v>105</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="J24" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="K24" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="L24" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M24" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N24" s="4"/>
@@ -6563,7 +6560,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6577,7 +6574,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="38"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="33" t="s">
         <v>62</v>
       </c>
@@ -7203,11 +7200,11 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="35"/>
       <c r="E15" s="4">
         <f>SUM(E3:E14)</f>
@@ -7225,45 +7222,45 @@
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="35"/>
       <c r="E16" s="4">
         <v>120</v>
       </c>
       <c r="F16" s="4">
-        <f>E16-15</f>
+        <f t="shared" ref="F16:M16" si="0">E16-15</f>
         <v>105</v>
       </c>
       <c r="G16" s="4">
-        <f>F16-15</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="H16" s="4">
-        <f>G16-15</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="I16" s="4">
-        <f>H16-15</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="J16" s="4">
-        <f>I16-15</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="K16" s="4">
-        <f>J16-15</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="L16" s="4">
-        <f>K16-15</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="M16" s="4">
-        <f>L16-15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N16" s="19"/>
@@ -7275,7 +7272,6 @@
     <mergeCell ref="A16:C16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/ADI-scrum-BrndownChart.xlsx
+++ b/ADI-scrum-BrndownChart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1860" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="3"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ADI-burndown" sheetId="4" r:id="rId1"/>
@@ -1105,11 +1105,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2083358984"/>
-        <c:axId val="2083361960"/>
+        <c:axId val="2079918664"/>
+        <c:axId val="2079921688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2083358984"/>
+        <c:axId val="2079918664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1118,7 +1118,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083361960"/>
+        <c:crossAx val="2079921688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1126,7 +1126,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2083361960"/>
+        <c:axId val="2079921688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1137,13 +1137,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083358984"/>
+        <c:crossAx val="2079918664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1286,11 +1287,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2083452392"/>
-        <c:axId val="2083455368"/>
+        <c:axId val="2098868424"/>
+        <c:axId val="2098871400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2083452392"/>
+        <c:axId val="2098868424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1299,7 +1300,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083455368"/>
+        <c:crossAx val="2098871400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1307,7 +1308,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2083455368"/>
+        <c:axId val="2098871400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1318,13 +1319,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083452392"/>
+        <c:crossAx val="2098868424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1427,11 +1429,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2083491640"/>
-        <c:axId val="2083494616"/>
+        <c:axId val="2099484664"/>
+        <c:axId val="2099487640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2083491640"/>
+        <c:axId val="2099484664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1440,7 +1442,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083494616"/>
+        <c:crossAx val="2099487640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1448,7 +1450,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2083494616"/>
+        <c:axId val="2099487640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1459,7 +1461,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083491640"/>
+        <c:crossAx val="2099484664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5427,7 +5429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -6560,7 +6562,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/ADI-scrum-BrndownChart.xlsx
+++ b/ADI-scrum-BrndownChart.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="142">
   <si>
     <t>Project</t>
   </si>
@@ -427,6 +427,36 @@
   </si>
   <si>
     <t>Ändra i API från boolean till Enum</t>
+  </si>
+  <si>
+    <t>Task 5.2</t>
+  </si>
+  <si>
+    <t>Task 5.3</t>
+  </si>
+  <si>
+    <t>Task 5.4</t>
+  </si>
+  <si>
+    <t>Task 5.6</t>
+  </si>
+  <si>
+    <t>Task 5.7</t>
+  </si>
+  <si>
+    <t>Revidering av coden API från boolean till Enum</t>
+  </si>
+  <si>
+    <t>Ändra User API</t>
+  </si>
+  <si>
+    <t>Ändra Category API</t>
+  </si>
+  <si>
+    <t>Ändra Cart Api</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ändra Product API </t>
   </si>
 </sst>
 </file>
@@ -757,7 +787,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="63">
+  <cellStyleXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -778,6 +808,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -904,7 +954,7 @@
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="63">
+  <cellStyles count="83">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -946,6 +996,16 @@
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
@@ -967,6 +1027,16 @@
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1353,6 +1423,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1392,18 +1463,18 @@
           <c:order val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 2'!$E$16:$O$16</c:f>
+              <c:f>'Sprint 2'!$E$21:$O$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>87.0</c:v>
+                  <c:v>84.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.0</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1415,7 +1486,7 @@
           <c:order val="1"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 2'!$E$17:$O$17</c:f>
+              <c:f>'Sprint 2'!$E$22:$O$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1591,13 +1662,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1765300</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1907,8 +1978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AA62"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E37" sqref="B37:E37"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79:E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4355,43 +4426,43 @@
         <v>254</v>
       </c>
       <c r="G38" s="4">
-        <f t="shared" ref="F38:P38" si="0">SUM(G5:G36)</f>
+        <f>SUM(G5:G36)</f>
         <v>239</v>
       </c>
       <c r="H38" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(H5:H36)</f>
         <v>226</v>
       </c>
       <c r="I38" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(I5:I36)</f>
         <v>205</v>
       </c>
       <c r="J38" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(J5:J36)</f>
         <v>205</v>
       </c>
       <c r="K38" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(K5:K36)</f>
         <v>167</v>
       </c>
       <c r="L38" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(L5:L36)</f>
         <v>152</v>
       </c>
       <c r="M38" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(M5:M36)</f>
         <v>111</v>
       </c>
       <c r="N38" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(N5:N36)</f>
         <v>95</v>
       </c>
       <c r="O38" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(O5:O36)</f>
         <v>92</v>
       </c>
       <c r="P38" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(P5:P36)</f>
         <v>72</v>
       </c>
       <c r="Q38" s="4">
@@ -4422,67 +4493,67 @@
         <v>240</v>
       </c>
       <c r="G39" s="4">
-        <f t="shared" ref="G39:L39" si="1">F39-15</f>
+        <f t="shared" ref="G39:L39" si="0">F39-15</f>
         <v>225</v>
       </c>
       <c r="H39" s="4">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="I39" s="4">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+      <c r="J39" s="4">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="K39" s="4">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+      <c r="L39" s="4">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="M39" s="4">
+        <f t="shared" ref="M39:V39" si="1">L39-15</f>
+        <v>135</v>
+      </c>
+      <c r="N39" s="4">
         <f t="shared" si="1"/>
-        <v>210</v>
-      </c>
-      <c r="I39" s="4">
+        <v>120</v>
+      </c>
+      <c r="O39" s="4">
         <f t="shared" si="1"/>
-        <v>195</v>
-      </c>
-      <c r="J39" s="4">
+        <v>105</v>
+      </c>
+      <c r="P39" s="4">
         <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="K39" s="4">
+        <v>90</v>
+      </c>
+      <c r="Q39" s="4">
         <f t="shared" si="1"/>
-        <v>165</v>
-      </c>
-      <c r="L39" s="4">
+        <v>75</v>
+      </c>
+      <c r="R39" s="4">
         <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="M39" s="4">
-        <f t="shared" ref="M39:V39" si="2">L39-15</f>
-        <v>135</v>
-      </c>
-      <c r="N39" s="4">
-        <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="O39" s="4">
-        <f t="shared" si="2"/>
-        <v>105</v>
-      </c>
-      <c r="P39" s="4">
-        <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-      <c r="Q39" s="4">
-        <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="R39" s="4">
-        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="S39" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="T39" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="U39" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="V39" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W39" s="4"/>
@@ -5311,7 +5382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -6441,15 +6512,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6847,27 +6918,27 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" ht="15" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>130</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E15" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F15" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G15" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -6879,23 +6950,26 @@
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="35"/>
+      <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="E16" s="4">
-        <f>SUM(E3:E15)</f>
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="F16" s="4">
-        <f>SUM(F3:F15)</f>
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="G16" s="4">
-        <f>G15</f>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -6907,54 +6981,190 @@
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2</v>
+      </c>
+      <c r="G17" s="4">
+        <v>2</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+    </row>
+    <row r="18" spans="1:15" ht="15" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2</v>
+      </c>
+      <c r="G18" s="4">
+        <v>2</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="4">
+        <f>SUM(E3:E20)</f>
+        <v>84</v>
+      </c>
+      <c r="F21" s="4">
+        <f>SUM(F14:F20)</f>
+        <v>27</v>
+      </c>
+      <c r="G21" s="4">
+        <f>SUM(G15:G20)</f>
+        <v>12</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="4">
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="4">
         <v>120</v>
       </c>
-      <c r="F17" s="4">
-        <f t="shared" ref="F17:M17" si="0">E17-15</f>
+      <c r="F22" s="4">
+        <f t="shared" ref="F22:M22" si="0">E22-15</f>
         <v>105</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G22" s="4">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H22" s="4">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I22" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J22" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K22" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L22" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M22" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/ADI-scrum-BrndownChart.xlsx
+++ b/ADI-scrum-BrndownChart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="3"/>
+    <workbookView xWindow="780" yWindow="320" windowWidth="25600" windowHeight="16060" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ADI-burndown" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="152">
   <si>
     <t>Project</t>
   </si>
@@ -457,6 +457,36 @@
   </si>
   <si>
     <t xml:space="preserve">Ändra Product API </t>
+  </si>
+  <si>
+    <t>Testa</t>
+  </si>
+  <si>
+    <t>KFUAAA</t>
+  </si>
+  <si>
+    <t>Task 6.1</t>
+  </si>
+  <si>
+    <t>Task 6.2</t>
+  </si>
+  <si>
+    <t>Task 6.3</t>
+  </si>
+  <si>
+    <t>Task 6.4</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>Log4J</t>
+  </si>
+  <si>
+    <t>Junit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scrum Agile XP </t>
   </si>
 </sst>
 </file>
@@ -787,7 +817,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="83">
+  <cellStyleXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -808,6 +838,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -954,7 +992,7 @@
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="83">
+  <cellStyles count="91">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1006,6 +1044,10 @@
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
@@ -1037,6 +1079,10 @@
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1202,11 +1248,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2099805528"/>
-        <c:axId val="2099808504"/>
+        <c:axId val="2124952376"/>
+        <c:axId val="2124955352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2099805528"/>
+        <c:axId val="2124952376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1215,7 +1261,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099808504"/>
+        <c:crossAx val="2124955352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1223,7 +1269,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2099808504"/>
+        <c:axId val="2124955352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1234,14 +1280,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099805528"/>
+        <c:crossAx val="2124952376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1384,11 +1429,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2099895224"/>
-        <c:axId val="2099898200"/>
+        <c:axId val="2125042168"/>
+        <c:axId val="2125045144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2099895224"/>
+        <c:axId val="2125042168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1397,7 +1442,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099898200"/>
+        <c:crossAx val="2125045144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1405,7 +1450,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2099898200"/>
+        <c:axId val="2125045144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1416,14 +1461,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099895224"/>
+        <c:crossAx val="2125042168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1463,18 +1507,21 @@
           <c:order val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 2'!$E$21:$O$21</c:f>
+              <c:f>'Sprint 2'!$E$25:$O$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>84.0</c:v>
+                  <c:v>126.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.0</c:v>
+                  <c:v>78.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.0</c:v>
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1486,7 +1533,7 @@
           <c:order val="1"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 2'!$E$22:$O$22</c:f>
+              <c:f>'Sprint 2'!$E$26:$O$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1532,11 +1579,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2099934200"/>
-        <c:axId val="2099937176"/>
+        <c:axId val="2125081320"/>
+        <c:axId val="2125084296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2099934200"/>
+        <c:axId val="2125081320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1545,7 +1592,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099937176"/>
+        <c:crossAx val="2125084296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1553,7 +1600,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2099937176"/>
+        <c:axId val="2125084296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1564,7 +1611,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099934200"/>
+        <c:crossAx val="2125081320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1662,13 +1709,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1765300</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4426,43 +4473,43 @@
         <v>254</v>
       </c>
       <c r="G38" s="4">
-        <f>SUM(G5:G36)</f>
+        <f t="shared" ref="G38:P38" si="0">SUM(G5:G36)</f>
         <v>239</v>
       </c>
       <c r="H38" s="4">
-        <f>SUM(H5:H36)</f>
+        <f t="shared" si="0"/>
         <v>226</v>
       </c>
       <c r="I38" s="4">
-        <f>SUM(I5:I36)</f>
+        <f t="shared" si="0"/>
         <v>205</v>
       </c>
       <c r="J38" s="4">
-        <f>SUM(J5:J36)</f>
+        <f t="shared" si="0"/>
         <v>205</v>
       </c>
       <c r="K38" s="4">
-        <f>SUM(K5:K36)</f>
+        <f t="shared" si="0"/>
         <v>167</v>
       </c>
       <c r="L38" s="4">
-        <f>SUM(L5:L36)</f>
+        <f t="shared" si="0"/>
         <v>152</v>
       </c>
       <c r="M38" s="4">
-        <f>SUM(M5:M36)</f>
+        <f t="shared" si="0"/>
         <v>111</v>
       </c>
       <c r="N38" s="4">
-        <f>SUM(N5:N36)</f>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="O38" s="4">
-        <f>SUM(O5:O36)</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="P38" s="4">
-        <f>SUM(P5:P36)</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="Q38" s="4">
@@ -4493,67 +4540,67 @@
         <v>240</v>
       </c>
       <c r="G39" s="4">
-        <f t="shared" ref="G39:L39" si="0">F39-15</f>
+        <f t="shared" ref="G39:L39" si="1">F39-15</f>
         <v>225</v>
       </c>
       <c r="H39" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
       <c r="I39" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>195</v>
       </c>
       <c r="J39" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="K39" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>165</v>
       </c>
       <c r="L39" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="M39" s="4">
-        <f t="shared" ref="M39:V39" si="1">L39-15</f>
+        <f t="shared" ref="M39:V39" si="2">L39-15</f>
         <v>135</v>
       </c>
       <c r="N39" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="O39" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>105</v>
       </c>
       <c r="P39" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="Q39" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="R39" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="S39" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="T39" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="U39" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="V39" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W39" s="4"/>
@@ -4935,7 +4982,6 @@
     <mergeCell ref="B39:D39"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -6512,10 +6558,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6606,9 +6652,15 @@
       <c r="E3" s="4">
         <v>15</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -6636,8 +6688,12 @@
       <c r="F4" s="4">
         <v>9</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -6662,9 +6718,15 @@
       <c r="E5" s="4">
         <v>9</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -6689,9 +6751,15 @@
       <c r="E6" s="4">
         <v>3</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -6716,9 +6784,15 @@
       <c r="E7" s="4">
         <v>3</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -6743,9 +6817,15 @@
       <c r="E8" s="4">
         <v>3</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -6770,9 +6850,15 @@
       <c r="E9" s="4">
         <v>3</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -6797,9 +6883,15 @@
       <c r="E10" s="4">
         <v>3</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -6824,9 +6916,15 @@
       <c r="E11" s="4">
         <v>3</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -6851,9 +6949,15 @@
       <c r="E12" s="4">
         <v>3</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -6878,9 +6982,15 @@
       <c r="E13" s="4">
         <v>3</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -6908,8 +7018,12 @@
       <c r="F14" s="4">
         <v>15</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -6940,7 +7054,9 @@
       <c r="G15" s="4">
         <v>6</v>
       </c>
-      <c r="H15" s="4"/>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -6971,7 +7087,9 @@
       <c r="G16" s="4">
         <v>2</v>
       </c>
-      <c r="H16" s="4"/>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -7002,7 +7120,9 @@
       <c r="G17" s="4">
         <v>2</v>
       </c>
-      <c r="H17" s="4"/>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -7033,7 +7153,9 @@
       <c r="G18" s="4">
         <v>2</v>
       </c>
-      <c r="H18" s="4"/>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -7052,11 +7174,21 @@
       <c r="C19" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="D19" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" s="4">
+        <v>6</v>
+      </c>
+      <c r="F19" s="4">
+        <v>6</v>
+      </c>
+      <c r="G19" s="4">
+        <v>6</v>
+      </c>
+      <c r="H19" s="4">
+        <v>6</v>
+      </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -7089,25 +7221,30 @@
       <c r="O20" s="4"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="35"/>
+      <c r="A21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="E21" s="4">
-        <f>SUM(E3:E20)</f>
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="F21" s="4">
-        <f>SUM(F14:F20)</f>
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="G21" s="4">
-        <f>SUM(G15:G20)</f>
-        <v>12</v>
-      </c>
-      <c r="H21" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="H21" s="4">
+        <v>9</v>
+      </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -7117,54 +7254,184 @@
       <c r="O21" s="4"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" s="4">
+        <v>9</v>
+      </c>
+      <c r="F22" s="4">
+        <v>9</v>
+      </c>
+      <c r="G22" s="4">
+        <v>9</v>
+      </c>
+      <c r="H22" s="4">
+        <v>9</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E23" s="4">
+        <v>9</v>
+      </c>
+      <c r="F23" s="4">
+        <v>9</v>
+      </c>
+      <c r="G23" s="4">
+        <v>9</v>
+      </c>
+      <c r="H23" s="4">
+        <v>9</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" s="4">
+        <v>9</v>
+      </c>
+      <c r="F24" s="4">
+        <v>9</v>
+      </c>
+      <c r="G24" s="4">
+        <v>9</v>
+      </c>
+      <c r="H24" s="4">
+        <v>9</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="4">
+        <f>SUM(E3:E24)</f>
+        <v>126</v>
+      </c>
+      <c r="F25" s="4">
+        <f>SUM(F3:F24)</f>
+        <v>78</v>
+      </c>
+      <c r="G25" s="4">
+        <f>SUM(G3:G24)</f>
+        <v>54</v>
+      </c>
+      <c r="H25" s="4">
+        <f>SUM(H10:H24)</f>
+        <v>42</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="4">
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="4">
         <v>120</v>
       </c>
-      <c r="F22" s="4">
-        <f t="shared" ref="F22:M22" si="0">E22-15</f>
+      <c r="F26" s="4">
+        <f t="shared" ref="F26:M26" si="0">E26-15</f>
         <v>105</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G26" s="4">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H26" s="4">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I26" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J26" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K26" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L26" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M26" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/ADI-scrum-BrndownChart.xlsx
+++ b/ADI-scrum-BrndownChart.xlsx
@@ -712,15 +712,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="93">
@@ -951,11 +951,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2090752696"/>
-        <c:axId val="2090755672"/>
+        <c:axId val="2030090344"/>
+        <c:axId val="2030087352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2090752696"/>
+        <c:axId val="2030090344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -964,7 +964,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090755672"/>
+        <c:crossAx val="2030087352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -972,7 +972,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2090755672"/>
+        <c:axId val="2030087352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -983,7 +983,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090752696"/>
+        <c:crossAx val="2030090344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1111,11 +1111,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2090791976"/>
-        <c:axId val="2090794952"/>
+        <c:axId val="2074436104"/>
+        <c:axId val="2074439080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2090791976"/>
+        <c:axId val="2074436104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1124,7 +1124,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090794952"/>
+        <c:crossAx val="2074439080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1132,7 +1132,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2090794952"/>
+        <c:axId val="2074439080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1143,7 +1143,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090791976"/>
+        <c:crossAx val="2074436104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1522,8 +1522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2539,11 +2539,11 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="11"/>
       <c r="E23" s="4">
         <f t="shared" ref="E23:O23" si="0">SUM(E3:E22)</f>
@@ -2591,11 +2591,11 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
       <c r="D24" s="11"/>
       <c r="E24" s="4">
         <v>120</v>
@@ -2654,7 +2654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView topLeftCell="B14" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
@@ -3550,11 +3550,11 @@
       <c r="O23" s="4"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
       <c r="D24" s="11"/>
       <c r="E24" s="4">
         <f>SUM(E3:E23)</f>
@@ -3590,11 +3590,11 @@
       <c r="O24" s="4"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="11"/>
       <c r="E25" s="4">
         <v>120</v>
@@ -3654,7 +3654,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3665,91 +3665,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="75">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="75">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="45">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="165">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="15"/>
+      <c r="C6" s="14"/>
     </row>
     <row r="7" spans="1:3" ht="60">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="14"/>
     </row>
     <row r="8" spans="1:3" ht="15">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="14"/>
     </row>
     <row r="9" spans="1:3" ht="45">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C9" s="15"/>
+      <c r="C9" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
